--- a/data/summary_golden_standard/summary_golden_standard.xlsx
+++ b/data/summary_golden_standard/summary_golden_standard.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingping/PycharmProjects/VideoChatMining/data/summary_golden_standard/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="460" windowWidth="12280" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="660" yWindow="0" windowWidth="24940" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="402">
   <si>
     <t>ba wang bie ji.csv_scene_66</t>
   </si>
@@ -933,17 +928,5295 @@
   </si>
   <si>
     <t>Dong Fang Bu Bai.csv_scene_398</t>
+  </si>
+  <si>
+    <r>
+      <t>舍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>盈盈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>师妹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>东方不败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>一起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>坠下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>山崖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>令狐冲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>到底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>爱着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>谁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>一目了然</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>史上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>最美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>跳崖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>此刻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>教主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>极致</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>美丽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>画面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>不忍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>直视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>眼神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊啊啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊啊啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dong Fang Bu Bai.csv_scene_403</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>教主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>太美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊啊啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>真是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>风华绝代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>东方不败</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>真是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>绝顶聪明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dong Fang Bu Bai.csv_scene_404</t>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_52</t>
+  </si>
+  <si>
+    <r>
+      <t>弄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>呀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>咋样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>空耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>蠢人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>你好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>2333333333333333</t>
+  </si>
+  <si>
+    <r>
+      <t>光速</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>打脸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_85</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>厕所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>自带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>回音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>厕所</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2333333333333.</t>
+  </si>
+  <si>
+    <r>
+      <t>这是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>小淘气</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>尼古拉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>爸爸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>耶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_91</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>梁逸峰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>23333333333333.</t>
+  </si>
+  <si>
+    <r>
+      <t>莫朗奇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>正在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>后面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>欺负</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_95</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>233333333333333.</t>
+  </si>
+  <si>
+    <r>
+      <t>萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>内伊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>元帅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>拿破仑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>麾下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>名将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>现实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>小佩皮诺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>前面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>演</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>老年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>莫朗杰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>儿子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ~.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_106</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>卷毛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>也好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_109</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>眼镜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>小孩儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>有点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>斗鸡眼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>那个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>填</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>拿破仑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>将军</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>可爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>魔理沙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 2333333.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_133</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>空耳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>讓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>大笑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 233333333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>蠢人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> hhh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_143</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>热爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>音乐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>却</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>只能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>数学老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 23333333333333333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>数学老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>潜台词</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>求带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>￣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>△</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>￣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>〜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>可爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_202</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>女神</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>233333333333.</t>
+  </si>
+  <si>
+    <r>
+      <t>妈妈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_204</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>可别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>卖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 2333333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>妈妈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好美</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_209</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>唯一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男中音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 2333333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>说好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>重点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>呢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>前方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>高能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>可爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_223</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>23333333333.</t>
+  </si>
+  <si>
+    <r>
+      <t>经典</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>校长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>可爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 2333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>妈呀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>当初</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>签名图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>太萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_224</t>
+  </si>
+  <si>
+    <r>
+      <t>校长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好萌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>校长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>可爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>莫名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>泪目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> QAQ.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_228</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>好人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>卡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>结局</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>饮料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>绿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 2333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>人生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>错觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>她</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>喜欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> + 1.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_287</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_287</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>23333333333333333333.</t>
+  </si>
+  <si>
+    <t>23333333333333333333.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>服务员</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>神补刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>补刀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>两杯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>饮料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>心多大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 233333.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>蓝莓</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>你妹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>薄荷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>酒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2333333333333333.</t>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_293</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>前方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>谱架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>开口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>跪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>合唱团</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>挑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>孩子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>忍不住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>忍不住</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_306</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>piu.</t>
+  </si>
+  <si>
+    <t>pion.</t>
+  </si>
+  <si>
+    <r>
+      <t>卧槽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>笑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> hhhhh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>自带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>鬼畜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> 233333333.</t>
+    </r>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_347</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>真的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>泪目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>孩子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>只能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这种</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>他们</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>喜欢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>老师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>告别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>几遍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>还是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>QAQ.</t>
+  </si>
+  <si>
+    <t>qwq.</t>
+  </si>
+  <si>
+    <t>fang niu ban de chun tian.csv_scene_351</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -951,7 +6224,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -959,7 +6232,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,6 +6240,23 @@
       <sz val="9"/>
       <color rgb="FFA9B7C6"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -986,7 +6276,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -994,22 +6284,113 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1065,7 +6446,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -1100,7 +6481,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -1277,7 +6658,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1285,1787 +6666,1787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244:A246"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A317" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A325" sqref="A325:A328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="91" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>81</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>92</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>102</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>110</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>117</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>127</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>127</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>127</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>127</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>128</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>128</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>128</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>138</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>138</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>138</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>139</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>139</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>146</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>146</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>146</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>147</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>147</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>148</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>148</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>148</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>148</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>156</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>156</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>156</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>157</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>157</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>162</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>162</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>167</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>167</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>167</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>172</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>172</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>172</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>173</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>173</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>173</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>173</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>173</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>174</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>174</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>174</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>174</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>174</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>180</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>180</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>180</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>190</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>190</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>197</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>197</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>197</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>197</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>197</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>197</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>198</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>198</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>198</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>198</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>199</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>199</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>199</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>199</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>199</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>199</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>210</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>210</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>210</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>218</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>218</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>218</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>218</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>219</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>219</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>219</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>219</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>219</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>226</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>226</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="1">
         <v>23333333</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>231</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>231</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>231</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>231</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>236</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>236</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>236</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>236</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>241</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>241</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>241</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>242</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>242</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="1">
         <v>2333333</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>242</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>242</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>250</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>250</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>250</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>255</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>255</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>255</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>255</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>258</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>258</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>258</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>263</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>263</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>263</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>263</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>267</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="1">
         <v>23333333</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>267</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>267</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>267</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>271</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>271</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>271</v>
       </c>
@@ -3073,7 +8454,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>276</v>
       </c>
@@ -3081,7 +8462,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>276</v>
       </c>
@@ -3089,15 +8470,15 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>276</v>
       </c>
-      <c r="B225" s="3" t="s">
+      <c r="B225" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>276</v>
       </c>
@@ -3105,7 +8486,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>281</v>
       </c>
@@ -3113,7 +8494,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>281</v>
       </c>
@@ -3121,7 +8502,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>281</v>
       </c>
@@ -3129,7 +8510,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>281</v>
       </c>
@@ -3137,7 +8518,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>284</v>
       </c>
@@ -3145,7 +8526,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>284</v>
       </c>
@@ -3153,7 +8534,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>288</v>
       </c>
@@ -3161,7 +8542,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>288</v>
       </c>
@@ -3169,7 +8550,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>288</v>
       </c>
@@ -3177,7 +8558,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -3185,15 +8566,15 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>292</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>292</v>
       </c>
@@ -3201,7 +8582,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>292</v>
       </c>
@@ -3209,15 +8590,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>297</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>297</v>
       </c>
@@ -3225,7 +8606,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>297</v>
       </c>
@@ -3233,7 +8614,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>297</v>
       </c>
@@ -3241,7 +8622,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>301</v>
       </c>
@@ -3249,7 +8630,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>301</v>
       </c>
@@ -3257,7 +8638,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>301</v>
       </c>
@@ -3265,8 +8646,670 @@
         <v>300</v>
       </c>
     </row>
+    <row r="247" spans="1:2" ht="18">
+      <c r="A247" t="s">
+        <v>307</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="18">
+      <c r="A248" t="s">
+        <v>307</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="18">
+      <c r="A249" t="s">
+        <v>307</v>
+      </c>
+      <c r="B249" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="18">
+      <c r="A250" t="s">
+        <v>307</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="18">
+      <c r="A251" t="s">
+        <v>307</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="18">
+      <c r="A252" t="s">
+        <v>311</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="18">
+      <c r="A253" t="s">
+        <v>311</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="18">
+      <c r="A254" t="s">
+        <v>311</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="18">
+      <c r="A255" t="s">
+        <v>312</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="18">
+      <c r="A256" t="s">
+        <v>312</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="18">
+      <c r="A257" t="s">
+        <v>312</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="18">
+      <c r="A258" t="s">
+        <v>320</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>320</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>320</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="18">
+      <c r="A261" t="s">
+        <v>320</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="18">
+      <c r="A262" t="s">
+        <v>325</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="18">
+      <c r="A263" t="s">
+        <v>325</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>325</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="18">
+      <c r="A265" t="s">
+        <v>325</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="18">
+      <c r="A266" t="s">
+        <v>329</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>329</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="18">
+      <c r="A268" t="s">
+        <v>329</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>334</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="18">
+      <c r="A270" t="s">
+        <v>334</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="18">
+      <c r="A271" t="s">
+        <v>334</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="18">
+      <c r="A272" t="s">
+        <v>334</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>336</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="18">
+      <c r="A274" t="s">
+        <v>336</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
+        <v>341</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="18">
+      <c r="A276" t="s">
+        <v>341</v>
+      </c>
+      <c r="B276" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="18">
+      <c r="A277" t="s">
+        <v>341</v>
+      </c>
+      <c r="B277" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="18">
+      <c r="A278" t="s">
+        <v>341</v>
+      </c>
+      <c r="B278" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="18">
+      <c r="A279" t="s">
+        <v>341</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
+        <v>345</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="18">
+      <c r="A281" t="s">
+        <v>345</v>
+      </c>
+      <c r="B281" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="18">
+      <c r="A282" t="s">
+        <v>345</v>
+      </c>
+      <c r="B282" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="18">
+      <c r="A283" t="s">
+        <v>345</v>
+      </c>
+      <c r="B283" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="18">
+      <c r="A284" t="s">
+        <v>350</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="18">
+      <c r="A285" t="s">
+        <v>350</v>
+      </c>
+      <c r="B285" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="18">
+      <c r="A286" t="s">
+        <v>350</v>
+      </c>
+      <c r="B286" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="18">
+      <c r="A287" t="s">
+        <v>350</v>
+      </c>
+      <c r="B287" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="18">
+      <c r="A288" t="s">
+        <v>354</v>
+      </c>
+      <c r="B288" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" t="s">
+        <v>354</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="18">
+      <c r="A290" t="s">
+        <v>354</v>
+      </c>
+      <c r="B290" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="18">
+      <c r="A291" t="s">
+        <v>357</v>
+      </c>
+      <c r="B291" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="18">
+      <c r="A292" t="s">
+        <v>357</v>
+      </c>
+      <c r="B292" s="5" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="18">
+      <c r="A293" t="s">
+        <v>362</v>
+      </c>
+      <c r="B293" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="18">
+      <c r="A294" t="s">
+        <v>362</v>
+      </c>
+      <c r="B294" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="18">
+      <c r="A295" t="s">
+        <v>362</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="18">
+      <c r="A296" t="s">
+        <v>362</v>
+      </c>
+      <c r="B296" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="18">
+      <c r="A297" t="s">
+        <v>368</v>
+      </c>
+      <c r="B297" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" t="s">
+        <v>368</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="18">
+      <c r="A299" t="s">
+        <v>368</v>
+      </c>
+      <c r="B299" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="18">
+      <c r="A300" t="s">
+        <v>368</v>
+      </c>
+      <c r="B300" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="18">
+      <c r="A301" t="s">
+        <v>368</v>
+      </c>
+      <c r="B301" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="18">
+      <c r="A302" t="s">
+        <v>372</v>
+      </c>
+      <c r="B302" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="18">
+      <c r="A303" t="s">
+        <v>372</v>
+      </c>
+      <c r="B303" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="18">
+      <c r="A304" t="s">
+        <v>372</v>
+      </c>
+      <c r="B304" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="18">
+      <c r="A305" t="s">
+        <v>372</v>
+      </c>
+      <c r="B305" s="5">
+        <v>233333333</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="18">
+      <c r="A306" t="s">
+        <v>378</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="18">
+      <c r="A307" t="s">
+        <v>377</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="18">
+      <c r="A308" t="s">
+        <v>377</v>
+      </c>
+      <c r="B308" s="5" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="18">
+      <c r="A309" t="s">
+        <v>377</v>
+      </c>
+      <c r="B309" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>377</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="18">
+      <c r="A311" t="s">
+        <v>386</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="18">
+      <c r="A312" t="s">
+        <v>386</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="18">
+      <c r="A313" t="s">
+        <v>386</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="18">
+      <c r="A314" t="s">
+        <v>386</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>386</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="18">
+      <c r="A316" t="s">
+        <v>390</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="18">
+      <c r="A317" t="s">
+        <v>390</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="18">
+      <c r="A318" t="s">
+        <v>390</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>396</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>396</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="18">
+      <c r="A321" t="s">
+        <v>396</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="18">
+      <c r="A322" t="s">
+        <v>396</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="18">
+      <c r="A323" t="s">
+        <v>396</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>396</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="18">
+      <c r="A325" t="s">
+        <v>401</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="18">
+      <c r="A326" t="s">
+        <v>401</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>401</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>401</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/summary_golden_standard/summary_golden_standard.xlsx
+++ b/data/summary_golden_standard/summary_golden_standard.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="488">
   <si>
     <t>ba wang bie ji.csv_scene_66</t>
   </si>
@@ -6205,6 +6205,5881 @@
   </si>
   <si>
     <t>fang niu ban de chun tian.csv_scene_351</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>微博</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>安利</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>蜡笔小新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>过来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>完</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>洛丽塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>过来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>素媛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>过来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> x.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>有病</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哪来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哪来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>谁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>知道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>来看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>弹幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>不带</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>满屏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_6</t>
+  </si>
+  <si>
+    <r>
+      <t>素媛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>真的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>东土</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>大唐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>洛丽塔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> + 1.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>王者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>荣耀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_7</t>
+  </si>
+  <si>
+    <r>
+      <t>有点像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>黄晓明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> … </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>错觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>招魂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>里面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_19</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">woc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>腹肌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>暂停</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>成功</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>鱼线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>女孩子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>马甲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>招魂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>好白</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_37</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>感觉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>妹子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>故意</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">lightman </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>这样</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>向</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>缩脸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>表示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>厌恶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_43</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>为什么</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>变蓝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>咧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>23333.</t>
+  </si>
+  <si>
+    <r>
+      <t>变</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>大家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>颜色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>玩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>嗨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>也</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_62</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>螺丝起子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> … … </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>脑子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> doctor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>蓝色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_63</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>反杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>女主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>静静地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>看着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ಥ _ ಥ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>女主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> : mdzz.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>心理战术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>没用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哥们儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_154</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>反杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>演技</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>男主好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>蠢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>自</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>以为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>厉害</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>2333333333.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_156</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">233333 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>尴尬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>女主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>内心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>毫无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>波动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>甚至</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>有点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>想</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>笑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_158</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>撞墙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>看得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>疼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>心疼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>女主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男主是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>大胡子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>邋遢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>胖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>大叔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>不会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>心疼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_177</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>直播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>割</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>鸡鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>还</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>没</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>死</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">( * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ω </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>✄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>╰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>ひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>╯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_181</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>姿势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>美如画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ( * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ω </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>✄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>╰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>ひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>╯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_183</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>弹幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>可怕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>屏幕</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>切</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>鸡鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_184</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>波兰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>斯基</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>手术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_190</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(   * </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ω </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> ) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>✄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>╰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>ひ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>╯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>同情</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>看看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>素媛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>熔炉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>恕我直言</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>恋童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>癖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>就</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>该</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>原地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>螺旋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>爆炸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_193</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>又</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>反杀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>＜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>赶快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>剪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>鸡鸡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_204</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_212</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>风油精</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>剃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>毛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>声音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_219</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这酸爽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> !.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>鬼畜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>抖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>心理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>被</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>男主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>彻底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>唤醒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_220</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>丁丁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>历险记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>只要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>不性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>侵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>幼童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>萝莉控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>恋童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>癖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>没有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>错</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>有恋童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>癖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>有恋童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>癖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>那个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>啊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>哈哈哈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>别扯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>好</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>心理学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>恋童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>癖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>必须</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>只能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>儿童</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>产生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>性冲动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>并且</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>严重</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>生活</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>恋叔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+      </rPr>
+      <t>癖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_230</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6218,6 +12093,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6276,8 +12152,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -6344,7 +12260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="87">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6368,6 +12284,26 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6391,6 +12327,26 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6658,7 +12614,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6666,10 +12622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B328"/>
+  <dimension ref="A1:B402"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A317" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A325" sqref="A325:A328"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A391" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A398" sqref="A398:A402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9302,6 +15258,598 @@
         <v>400</v>
       </c>
     </row>
+    <row r="329" spans="1:2" ht="18">
+      <c r="A329" t="s">
+        <v>408</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="18">
+      <c r="A330" t="s">
+        <v>408</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="18">
+      <c r="A331" t="s">
+        <v>408</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="18">
+      <c r="A332" t="s">
+        <v>408</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="18">
+      <c r="A333" t="s">
+        <v>408</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="18">
+      <c r="A334" t="s">
+        <v>408</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="18">
+      <c r="A335" t="s">
+        <v>413</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="18">
+      <c r="A336" t="s">
+        <v>413</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="18">
+      <c r="A337" t="s">
+        <v>413</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="18">
+      <c r="A338" t="s">
+        <v>413</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="18">
+      <c r="A339" t="s">
+        <v>417</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="18">
+      <c r="A340" t="s">
+        <v>417</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="18">
+      <c r="A341" t="s">
+        <v>417</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="18">
+      <c r="A342" t="s">
+        <v>423</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="18">
+      <c r="A343" t="s">
+        <v>423</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="18">
+      <c r="A344" t="s">
+        <v>423</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="18">
+      <c r="A345" t="s">
+        <v>423</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="18">
+      <c r="A346" t="s">
+        <v>423</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="18">
+      <c r="A347" t="s">
+        <v>427</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="18">
+      <c r="A348" t="s">
+        <v>427</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="18">
+      <c r="A349" t="s">
+        <v>427</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="18">
+      <c r="A350" t="s">
+        <v>427</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="18">
+      <c r="A351" t="s">
+        <v>432</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>432</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="18">
+      <c r="A353" t="s">
+        <v>432</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="18">
+      <c r="A354" t="s">
+        <v>432</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="18">
+      <c r="A355" t="s">
+        <v>436</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="18">
+      <c r="A356" t="s">
+        <v>436</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="18">
+      <c r="A357" t="s">
+        <v>436</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="18">
+      <c r="A358" t="s">
+        <v>442</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="18">
+      <c r="A359" t="s">
+        <v>442</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="18">
+      <c r="A360" t="s">
+        <v>442</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="18">
+      <c r="A361" t="s">
+        <v>442</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="18">
+      <c r="A362" t="s">
+        <v>442</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="18">
+      <c r="A363" t="s">
+        <v>447</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="18">
+      <c r="A364" t="s">
+        <v>447</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="18">
+      <c r="A365" t="s">
+        <v>447</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>447</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="18">
+      <c r="A367" t="s">
+        <v>450</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="18">
+      <c r="A368" t="s">
+        <v>450</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="18">
+      <c r="A369" t="s">
+        <v>454</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="18">
+      <c r="A370" t="s">
+        <v>454</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="18">
+      <c r="A371" t="s">
+        <v>454</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="18">
+      <c r="A372" t="s">
+        <v>458</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="18">
+      <c r="A373" t="s">
+        <v>458</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="18">
+      <c r="A374" t="s">
+        <v>458</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="18">
+      <c r="A375" t="s">
+        <v>458</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="18">
+      <c r="A376" t="s">
+        <v>460</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="18">
+      <c r="A377" t="s">
+        <v>460</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="18">
+      <c r="A378" t="s">
+        <v>463</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="18">
+      <c r="A379" t="s">
+        <v>463</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="18">
+      <c r="A380" t="s">
+        <v>466</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="18">
+      <c r="A381" t="s">
+        <v>466</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="18">
+      <c r="A382" t="s">
+        <v>466</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="18">
+      <c r="A383" t="s">
+        <v>469</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="18">
+      <c r="A384" t="s">
+        <v>469</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="18">
+      <c r="A385" t="s">
+        <v>469</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="18">
+      <c r="A386" t="s">
+        <v>473</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="18">
+      <c r="A387" t="s">
+        <v>473</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="18">
+      <c r="A388" t="s">
+        <v>473</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="18">
+      <c r="A389" t="s">
+        <v>473</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="18">
+      <c r="A390" t="s">
+        <v>474</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" t="s">
+        <v>474</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="18">
+      <c r="A392" t="s">
+        <v>478</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="18">
+      <c r="A393" t="s">
+        <v>478</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="18">
+      <c r="A394" t="s">
+        <v>478</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="18">
+      <c r="A395" t="s">
+        <v>481</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" t="s">
+        <v>481</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="18">
+      <c r="A397" t="s">
+        <v>481</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="18">
+      <c r="A398" t="s">
+        <v>487</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="18">
+      <c r="A399" t="s">
+        <v>487</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="18">
+      <c r="A400" t="s">
+        <v>487</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="18">
+      <c r="A401" t="s">
+        <v>487</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="18">
+      <c r="A402" t="s">
+        <v>487</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/summary_golden_standard/summary_golden_standard.xlsx
+++ b/data/summary_golden_standard/summary_golden_standard.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qingping/PycharmProjects/VideoChatMining/data/summary_golden_standard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="660" yWindow="0" windowWidth="24940" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="17500" yWindow="460" windowWidth="11100" windowHeight="14000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1010">
   <si>
     <t>ba wang bie ji.csv_scene_66</t>
   </si>
@@ -12081,6 +12086,1572 @@
   <si>
     <t>hard candy.csv_scene_230</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>说 女主 心理 有 问题 的 我 把 你 朋友 奸杀 了 再 把 你 约 出来 奸 你 你 很 开心 是 吧.</t>
+  </si>
+  <si>
+    <t>演技 爆炸 ！ ！ ！ ！ ！ ！.</t>
+  </si>
+  <si>
+    <t>丁丁 历险记.</t>
+  </si>
+  <si>
+    <t>看 他 哭 成 这样 ， 我 好 心疼 这个 大叔.</t>
+  </si>
+  <si>
+    <t>快 醒醒 吧 ， 男主 一点儿 也 不 可怜 ， 他 不知 恋童 还 奸杀 啊 ， 你们 是不是 疯 了.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_247</t>
+  </si>
+  <si>
+    <t>被 侵犯 的 女人 ／ 女孩 也 会 这么 喊 吧.</t>
+  </si>
+  <si>
+    <t>让 我 想到 土拨鼠 的 呐喊.</t>
+  </si>
+  <si>
+    <t>哎 男主 真可怜 … 女主 赶紧 阉 了 他.</t>
+  </si>
+  <si>
+    <t>对不起 我 笑 了.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_251</t>
+  </si>
+  <si>
+    <t>( * ・ ω ・ ) ✄ ╰ ひ ╯.</t>
+  </si>
+  <si>
+    <t>是 啊 好 心疼 ， 所以 长痛 不如 短痛 ， 快 阉 了 吧.</t>
+  </si>
+  <si>
+    <t>lostriver ? ? ！.</t>
+  </si>
+  <si>
+    <t>好 吵 还是 剪 了 吧.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_253</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 哈哈哈 哈哈哈.</t>
+  </si>
+  <si>
+    <t>生 无可 恋.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_256</t>
+  </si>
+  <si>
+    <t>， ， ， 留 一个 ？ ， hhhh 笑 到 不能自已.</t>
+  </si>
+  <si>
+    <t>是 希特勒 不是 辛德勒.</t>
+  </si>
+  <si>
+    <t>孤睾 战士.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_267</t>
+  </si>
+  <si>
+    <t>全新 世界 笑 死 哈哈哈哈.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 走路 走不直 ！ 神吐槽 哈哈哈 哈哈哈.</t>
+  </si>
+  <si>
+    <t>贤者 模式.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_269</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_270</t>
+  </si>
+  <si>
+    <t>真的 女主 语气 特别 像 接生 哇 哦 是 个 男孩.</t>
+  </si>
+  <si>
+    <t>新世界 BGM.</t>
+  </si>
+  <si>
+    <t>喂 你 吃掉 吧.</t>
+  </si>
+  <si>
+    <t>笑 尿.</t>
+  </si>
+  <si>
+    <t>男主 处于 即将 崩溃 的 状态.</t>
+  </si>
+  <si>
+    <t>这 两人 演技 超神.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_278</t>
+  </si>
+  <si>
+    <t>看 男主 这样 我 真是 笑 死 了 大快人心 哈哈哈.</t>
+  </si>
+  <si>
+    <t>哈哈哈 哈哈哈 哈哈哈 男主 攥 着 一把 小刀 爬出来 了 ！ ！ 我 还 能 反杀 ！ ！.</t>
+  </si>
+  <si>
+    <t>干 大事 的 我 也 这么 觉得 ， 这么 好 的 脑子 不干 大事 可惜 了.</t>
+  </si>
+  <si>
+    <t>哈哈哈.</t>
+  </si>
+  <si>
+    <t>突然 同情 男主.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_308</t>
+  </si>
+  <si>
+    <t>注意 看 右下角 的 图片.</t>
+  </si>
+  <si>
+    <t>为 恋童 癖 洗白 的 自己 打脸.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_309</t>
+  </si>
+  <si>
+    <t>公主 日记 里面 的 老师.</t>
+  </si>
+  <si>
+    <t>啊啊啊 yang.</t>
+  </si>
+  <si>
+    <t>杨.</t>
+  </si>
+  <si>
+    <t>林永健 ？</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_322</t>
+  </si>
+  <si>
+    <t>告诉 我 男主 最后 死 没有.</t>
+  </si>
+  <si>
+    <t>机智 的 女主.</t>
+  </si>
+  <si>
+    <t>你 听到 的 男主 的 呻吟 是 绳子 绷住 时候 的 声音 ，.</t>
+  </si>
+  <si>
+    <t>绳子 没 绷紧.</t>
+  </si>
+  <si>
+    <t>说 没 看 懂 的 我 也 是 醉 了.</t>
+  </si>
+  <si>
+    <t>小红帽 战胜 大灰狼 。.</t>
+  </si>
+  <si>
+    <t>hard candy.csv_scene_385</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_9</t>
+  </si>
+  <si>
+    <t>前方 高能 ， 耳机 调低 音量.</t>
+  </si>
+  <si>
+    <t>吓死 宝宝 了.</t>
+  </si>
+  <si>
+    <t>吓 得 我虎躯 一震.</t>
+  </si>
+  <si>
+    <t>卧槽 ， 我 在 掏 耳屎 好 吗.</t>
+  </si>
+  <si>
+    <t>解 皮带 的 别 走 ！.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_10</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_11</t>
+  </si>
+  <si>
+    <t>吓 得 我 媳妇 虎躯 一震.</t>
+  </si>
+  <si>
+    <t>卧槽 吓 我 一 跳.</t>
+  </si>
+  <si>
+    <t>这 bgm 我 想到 维密.</t>
+  </si>
+  <si>
+    <t>bangbang.</t>
+  </si>
+  <si>
+    <t>为什么 消音 。 。 。.</t>
+  </si>
+  <si>
+    <t>hhhhhh 暖 暖.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_34</t>
+  </si>
+  <si>
+    <t>吓 老子 一跳.</t>
+  </si>
+  <si>
+    <t>这么 近 也 能 打 偏 … … 怪不得 只 夸 你 会 用 刀 2333.</t>
+  </si>
+  <si>
+    <t>真是 用刀 高手 ， 可惜 你 跟不上 时代 变化 23333.</t>
+  </si>
+  <si>
+    <t>好 想 吃 地上 的 麦片 - _ - #.</t>
+  </si>
+  <si>
+    <t>麦爹 空 大笑 裂.</t>
+  </si>
+  <si>
+    <t>帅 ！.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_54</t>
+  </si>
+  <si>
+    <t>23333333.</t>
+  </si>
+  <si>
+    <t>对 着 脚趾 讲故事.</t>
+  </si>
+  <si>
+    <t>我 靠 怎么 看着 像 温特沃斯 · 米勒.</t>
+  </si>
+  <si>
+    <t>变一变 画风 然后 拍 成 动漫 电影.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_117</t>
+  </si>
+  <si>
+    <t>雄霸 ？.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_196</t>
+  </si>
+  <si>
+    <t>半藏.</t>
+  </si>
+  <si>
+    <t>服部 ？ ？ ？ ？.</t>
+  </si>
+  <si>
+    <t>← 哈哈哈 哈哈.</t>
+  </si>
+  <si>
+    <t>那 代价 是 什么.</t>
+  </si>
+  <si>
+    <t>守望 屁股 的 那个 暴露 时间 了 hhhh 是 岛 田 啦.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_199</t>
+  </si>
+  <si>
+    <t>布袋 寅 更 的 日本 战歌.</t>
+  </si>
+  <si>
+    <t>我 也 是 为了 这个 BGM 来 再 看一遍 的.</t>
+  </si>
+  <si>
+    <t>碟中谍 里 也 有 这段 音乐.</t>
+  </si>
+  <si>
+    <t>卧槽 经典.</t>
+  </si>
+  <si>
+    <t>哈哈哈 陈汉典 的 你 别 走 哈哈哈.</t>
+  </si>
+  <si>
+    <t>看到 北村 叔 了.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_269</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_273</t>
+  </si>
+  <si>
+    <t>输出 全靠 吼.</t>
+  </si>
+  <si>
+    <t>哈哈哈 哈哈.</t>
+  </si>
+  <si>
+    <t>嗷嗷 嗷嗷.</t>
+  </si>
+  <si>
+    <t>这些 炮灰 是 来 搞笑 的 吗.</t>
+  </si>
+  <si>
+    <t>好 挫.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_303</t>
+  </si>
+  <si>
+    <t>GOGO 呢 ？.</t>
+  </si>
+  <si>
+    <t>↑ 雷姆 的 别 走.</t>
+  </si>
+  <si>
+    <t>说蕾姆 的 暴露 时间.</t>
+  </si>
+  <si>
+    <t>你们 都 暴露 了.</t>
+  </si>
+  <si>
+    <t>流星锤.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_309</t>
+  </si>
+  <si>
+    <t>再 转 一会 就 飞 上天 了.</t>
+  </si>
+  <si>
+    <t>陈国汉 233333.</t>
+  </si>
+  <si>
+    <t>不会 砸 到头 么.</t>
+  </si>
+  <si>
+    <t>一刀 砍断 就 神剧 了.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_313</t>
+  </si>
+  <si>
+    <t>本垒打.</t>
+  </si>
+  <si>
+    <t>笑 死 我 了 这个 反弹.</t>
+  </si>
+  <si>
+    <t>卧槽 ， ， ， ， 笑点 低 了 ， ， ，.</t>
+  </si>
+  <si>
+    <t>未能 击穿 敌人 的 装甲 ， 发生 跳弹 ， 击伤 自己 ！.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_318</t>
+  </si>
+  <si>
+    <t>太 血腥 所以 黑白.</t>
+  </si>
+  <si>
+    <t>击中 友军 ！.</t>
+  </si>
+  <si>
+    <t>斧头帮.</t>
+  </si>
+  <si>
+    <t>猪 队友.</t>
+  </si>
+  <si>
+    <t>原版 是 彩色 的 哦 ， 说 搞笑 的 ， 去 看看 b 站 日语 中字 那个 版本 就 知道 了.</t>
+  </si>
+  <si>
+    <t>233333.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_334</t>
+  </si>
+  <si>
+    <t>燕小六.</t>
+  </si>
+  <si>
+    <t>23333 笑 死 我 了.</t>
+  </si>
+  <si>
+    <t>小六 你 不当 你 的 捕快 来 日本 干 黑帮 这行 了 ?.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_351</t>
+  </si>
+  <si>
+    <t>老板娘 你 快 走 吧.</t>
+  </si>
+  <si>
+    <t>弹幕 笑 死 我 了.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 哈哈哈 笑 出声.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_359</t>
+  </si>
+  <si>
+    <t>河童 即视感.</t>
+  </si>
+  <si>
+    <t>汉尼拔 开饭 了.</t>
+  </si>
+  <si>
+    <t>全程 靠 神器 ， 这 把 刀 MVP.</t>
+  </si>
+  <si>
+    <t>无耻 混蛋 哈哈哈哈.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_390</t>
+  </si>
+  <si>
+    <t>和 主角 作对 的 反派 必 死 定律.</t>
+  </si>
+  <si>
+    <t>这 事 告诉 我们 装备 重要性.</t>
+  </si>
+  <si>
+    <t>脑子 不会 掉 出去 吗.</t>
+  </si>
+  <si>
+    <t>kill bill.csv_scene_392</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_105</t>
+  </si>
+  <si>
+    <t>说得好.</t>
+  </si>
+  <si>
+    <t>厉害 了 我 的 萌.</t>
+  </si>
+  <si>
+    <t>卧槽 ， 不 晕船 ？ ？ ？ ？ ？.</t>
+  </si>
+  <si>
+    <t>不知 所有 牛奶 都 叫 金典 哈哈哈哈.</t>
+  </si>
+  <si>
+    <t>好看 ， 蒙牛.</t>
+  </si>
+  <si>
+    <t>hhhh.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_133</t>
+  </si>
+  <si>
+    <t>我 的 妈呀 可爱 死 了 ！.</t>
+  </si>
+  <si>
+    <t>感觉 这黑 胖子 也 是 个 不错 的 演奏家 只是 1900 太牛 x.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_385</t>
+  </si>
+  <si>
+    <t>自私 ？ 你 看不出来 音乐 对 男主 来说 是 唯一 的 亲人 爱人 般的 存在 吗.</t>
+  </si>
+  <si>
+    <t>无脑 弹幕 举报 或者 一笑而过 都 可以 喷起来 真的 影响 后面 来 观看 的 人.</t>
+  </si>
+  <si>
+    <t>一句 自私 之后 满屏 弹幕 随之而来 莫名 喜感.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_457</t>
+  </si>
+  <si>
+    <t>我 不是 VIP 也 可以 用 红色 啊.</t>
+  </si>
+  <si>
+    <t>唱片 是 物质 社会 的 载体 ， 1900 弹出 的 音符 是 一种 精神 世界 的 象征.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_465</t>
+  </si>
+  <si>
+    <t>猥琐 的 钢琴师.</t>
+  </si>
+  <si>
+    <t>好 可爱.</t>
+  </si>
+  <si>
+    <t>像 小孩子 一样.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_490</t>
+  </si>
+  <si>
+    <t>这个 镜头 有些 可怕.</t>
+  </si>
+  <si>
+    <t>阿妹 你 看 ！.</t>
+  </si>
+  <si>
+    <t>笑 的 不行 了 。 哈哈.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_491</t>
+  </si>
+  <si>
+    <t>没 下船 他 一直 在 船上.</t>
+  </si>
+  <si>
+    <t>我家 巧克力 都 比 它 硬 我家 巧克力 都 比 它 硬.</t>
+  </si>
+  <si>
+    <t>他 没有 身份证明.</t>
+  </si>
+  <si>
+    <t>好脆 的 碟.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_506</t>
+  </si>
+  <si>
+    <t>bang !.</t>
+  </si>
+  <si>
+    <t>老头 MDZZ 吓 我 一 跳.</t>
+  </si>
+  <si>
+    <t>我 是 这 老头 一定 开枪 ， 妈 的 ， 吓 老子 。.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 好 可爱.</t>
+  </si>
+  <si>
+    <t>bangbangbang.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_511</t>
+  </si>
+  <si>
+    <t>他 想 把 老头 吓死.</t>
+  </si>
+  <si>
+    <t>他 的 目的 其实 是 吓死 店主 然后 偷走 小号 和 碟子 哈哈哈.</t>
+  </si>
+  <si>
+    <t>吓 老子 一跳 23333333.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_512</t>
+  </si>
+  <si>
+    <t>笑 死 我 了 ! !.</t>
+  </si>
+  <si>
+    <t>吓 着 老大爷 了.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_513</t>
+  </si>
+  <si>
+    <t>下船 吧 ！ 求 你 了 ！.</t>
+  </si>
+  <si>
+    <t>本来 可以 控制 住 的 ， 看 弹幕 泪目 了.</t>
+  </si>
+  <si>
+    <t>感觉 就 像是 ， 如若 泰坦尼克号 上 所有人 都 活 下来 了 ， 也 就 没有 原来 的 味道 了.</t>
+  </si>
+  <si>
+    <t>只要 你 还有 一个 好 故事 和 一个 能 倾诉 的 人 ， 你 的 人生 就 不会 玩蛋.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_601</t>
+  </si>
+  <si>
+    <t>bye1900.</t>
+  </si>
+  <si>
+    <t>NO ! ! !.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_648</t>
+  </si>
+  <si>
+    <t>人生 啊 ， 也 就是 一场 电影 ， 不过如此 了 。.</t>
+  </si>
+  <si>
+    <t>果然 有 一个 好 故事 就 不会 完蛋.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_659</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_660</t>
+  </si>
+  <si>
+    <t>好 棒 的 故事 那种 归宿感 好 电影.</t>
+  </si>
+  <si>
+    <t>海上 钢琴师 。.</t>
+  </si>
+  <si>
+    <t>选修课 的 站住 ！.</t>
+  </si>
+  <si>
+    <t>阿长 ， 我 喜欢 你 。.</t>
+  </si>
+  <si>
+    <t>看 了 两天 看 完.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_661</t>
+  </si>
+  <si>
+    <t>上海 钢琴师.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_662</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_663</t>
+  </si>
+  <si>
+    <t>呜呜 呜呜 呜呜 哇 死 了 为什么 死 了 呜呜.</t>
+  </si>
+  <si>
+    <t>我 还是 觉得 羡慕 1900 啊 ！ 我 羡慕 他 的 孤独 。 大概 卢狗 你 不会 懂.</t>
+  </si>
+  <si>
+    <t>二刷.</t>
+  </si>
+  <si>
+    <t>再见 了 1900.</t>
+  </si>
+  <si>
+    <t>向 无名 的 伟人 致敬.</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_664</t>
+  </si>
+  <si>
+    <t>刚 日期 都 写错 了.</t>
+  </si>
+  <si>
+    <t>没看 懂.</t>
+  </si>
+  <si>
+    <t>看着 镜中 的 自己 ， 我 开始 思考 人生 的 意义 … ….</t>
+  </si>
+  <si>
+    <t>legend1900.csv_scene_665</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_6</t>
+  </si>
+  <si>
+    <t>好好 的 一 电影 ， 被 你们 这些 表白 的 搞 的 … … … ….</t>
+  </si>
+  <si>
+    <t>表白 都 分手.</t>
+  </si>
+  <si>
+    <t>表白 的 有 病.</t>
+  </si>
+  <si>
+    <t>陈子 睿 我 喜欢 你.</t>
+  </si>
+  <si>
+    <t>飒飒 ， 我爱你.</t>
+  </si>
+  <si>
+    <t>一言不合 开启 表白 模式 ？.</t>
+  </si>
+  <si>
+    <t>高 司令 我 特妈 爱 你.</t>
+  </si>
+  <si>
+    <t>谢洁冰 我 还 想 你.</t>
+  </si>
+  <si>
+    <t>前面 的 ， 灿烈 是 我 的.</t>
+  </si>
+  <si>
+    <t>可以 屏蔽 弹幕 惹.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_7</t>
+  </si>
+  <si>
+    <t>说 笑 的 像 马婷 的 你 站住 我们 好好 聊聊.</t>
+  </si>
+  <si>
+    <t>女主 笑声 好 魔性.</t>
+  </si>
+  <si>
+    <t>高 司令 又 来 了 哈哈哈 ！ 动不动 就 邀请 人 在 大街 上尬 舞.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_67</t>
+  </si>
+  <si>
+    <t>自动 脑补 cityofstars.</t>
+  </si>
+  <si>
+    <t>不如 跳舞.</t>
+  </si>
+  <si>
+    <t>街舞 哈哈哈哈 哈哈哈哈.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_70</t>
+  </si>
+  <si>
+    <t>斯大林 哈哈哈哈 哈哈哈哈 哈哈哈 一秒 出戏.</t>
+  </si>
+  <si>
+    <t>斯大林 还是 高尔基 ？.</t>
+  </si>
+  <si>
+    <t>鲁迅 ！ ！ ！.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_101</t>
+  </si>
+  <si>
+    <t>女主 紧张 了 吗 蜜汁 尴尬 红红火火 恍恍惚惚 红红火火.</t>
+  </si>
+  <si>
+    <t>话 好多 啊 哈哈.</t>
+  </si>
+  <si>
+    <t>软 了 hhhh.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_141</t>
+  </si>
+  <si>
+    <t>23333333 你 才 是 疯子.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 好 可爱 啊.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_237</t>
+  </si>
+  <si>
+    <t>诺亚方舟.</t>
+  </si>
+  <si>
+    <t>他们 开始 笑 而 我 却 哭 了 ( ๑ १ д १ ).</t>
+  </si>
+  <si>
+    <t>莫名 的 悲伤 ， 配乐 点赞.</t>
+  </si>
+  <si>
+    <t>奥列格 是 你 吗.</t>
+  </si>
+  <si>
+    <t>借着 下雨 终于 可以 哭 了.</t>
+  </si>
+  <si>
+    <t>头发 上去 像 凯恩 ～ 下来 米楚 ～ 梅西 没 这么 帅.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_320</t>
+  </si>
+  <si>
+    <t>突然 感觉 男主 好像 破产 姐妹 里 的 奥列格 ….</t>
+  </si>
+  <si>
+    <t>感觉 男二是 小 鲜肉.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_392</t>
+  </si>
+  <si>
+    <t>尼玛 ， 我要 哭 了.</t>
+  </si>
+  <si>
+    <t>这 BGM 太 催泪 了 爸.</t>
+  </si>
+  <si>
+    <t>心疼 男二.</t>
+  </si>
+  <si>
+    <t>感人.</t>
+  </si>
+  <si>
+    <t>鸡皮疙瘩.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_423</t>
+  </si>
+  <si>
+    <t>妈 的 我 竟然 哭 了.</t>
+  </si>
+  <si>
+    <t>我为 男二续 两秒.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_424</t>
+  </si>
+  <si>
+    <t>瞬间 泪崩.</t>
+  </si>
+  <si>
+    <t>我 哭 了 ， 前边 一直 没哭 ， 这里 哭 了.</t>
+  </si>
+  <si>
+    <t>年轻 时候 不 觉得 感动 ， 反而 是 老 了 之后 ， 好 感动.</t>
+  </si>
+  <si>
+    <t>天下 有情人终成眷属.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_471</t>
+  </si>
+  <si>
+    <t>哭 死 我 了.</t>
+  </si>
+  <si>
+    <t>泪崩.</t>
+  </si>
+  <si>
+    <t>未来 的 那个 人 我爱你.</t>
+  </si>
+  <si>
+    <t>说 死就死 了 吗 。 。 。 。.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_472</t>
+  </si>
+  <si>
+    <t>愿 有情人终成眷属.</t>
+  </si>
+  <si>
+    <t>愿 我 也 能 和 所 爱 的 人 相伴 一生.</t>
+  </si>
+  <si>
+    <t>小蕊蕊 ， 我爱你.</t>
+  </si>
+  <si>
+    <t>以后 不再 喜欢 你 了 因为 你 要 的 不是 我.</t>
+  </si>
+  <si>
+    <t>真的 无语 了 竟然 说 是 男二 你 也 知道 是 男二 啊.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_474</t>
+  </si>
+  <si>
+    <t>希望 我 可以 快点 遇到 你 我会 好好 努力.</t>
+  </si>
+  <si>
+    <t>我爱你 赵佐.</t>
+  </si>
+  <si>
+    <t>这个 故事 太美 了 嘤 嘤 嘤.</t>
+  </si>
+  <si>
+    <t>虽然 我 没有 哭 但是 我 很 感动 ， 我 希望 我 以后 也 能 拥有 这样 的 爱情.</t>
+  </si>
+  <si>
+    <t>表示 泪点 在 哪.</t>
+  </si>
+  <si>
+    <t>为什么 分手 快 三年 了 ， 看 这样 的 电影 还是 想起 你.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_475</t>
+  </si>
+  <si>
+    <t>嫁给 爱情.</t>
+  </si>
+  <si>
+    <t>好 想 有 一个 人 对 我 也 这样 ， 好 想 拥有 这般 的 爱情.</t>
+  </si>
+  <si>
+    <t>我 居然 哭 了.</t>
+  </si>
+  <si>
+    <t>未来 的 自己 希望 你 能 找到 幸福 。.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_477</t>
+  </si>
+  <si>
+    <t>哭 死.</t>
+  </si>
+  <si>
+    <t>哥哥 喵 喵 爱 你.</t>
+  </si>
+  <si>
+    <t>泪点 不 高 没 哭 不 感同身受 万年 单身 狗 一只.</t>
+  </si>
+  <si>
+    <t>notebook.csv_scene_478</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_12</t>
+  </si>
+  <si>
+    <t>潘长江.</t>
+  </si>
+  <si>
+    <t>银饰 不会 掉色 的 好 吗 ？ 是 氧化 变色 了.</t>
+  </si>
+  <si>
+    <t>真 有点像 潘长江 23333.</t>
+  </si>
+  <si>
+    <t>吴雨翔 ┼ 1.</t>
+  </si>
+  <si>
+    <t>这是 赫本 所有 电影 里 我 最 喜欢 的 一个 男主.</t>
+  </si>
+  <si>
+    <t>女神.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_20</t>
+  </si>
+  <si>
+    <t>只有 我 觉得 这样 吹口哨 的 女神 很炫酷 吗 哈哈哈 哈哈 想 学.</t>
+  </si>
+  <si>
+    <t>香水 别人 肯定 会 比 你 知道 怎么 喷 的.</t>
+  </si>
+  <si>
+    <t>男主 很 绅士.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_54</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_55</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_56</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_57</t>
+  </si>
+  <si>
+    <t>23333333333333333333333333333.</t>
+  </si>
+  <si>
+    <t>一看 就 不是 什么 正经 字幕组 2333333333333.</t>
+  </si>
+  <si>
+    <t>就算 再 像 气质 也 差 了 8 条街 ， 再说 了 根本 不像.</t>
+  </si>
+  <si>
+    <t>抽根烟 屁大 点事 。 。 。.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_74</t>
+  </si>
+  <si>
+    <t>梦话 居然 如此 清晰 。 。 。.</t>
+  </si>
+  <si>
+    <t>。 。 。 。 浮夸 的 演技.</t>
+  </si>
+  <si>
+    <t>演技 贼 假 ， 还是 那个 年代 特色 如此.</t>
+  </si>
+  <si>
+    <t>废话 ， 没盖 被子 当然 冷.</t>
+  </si>
+  <si>
+    <t>好假.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_96</t>
+  </si>
+  <si>
+    <t>男主 一脸 懵 逼.</t>
+  </si>
+  <si>
+    <t>什么 鬼.</t>
+  </si>
+  <si>
+    <t>蜜汁 尴尬.</t>
+  </si>
+  <si>
+    <t>暂停 成功.</t>
+  </si>
+  <si>
+    <t>白色 以示 纯洁 。 不要 打 我.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_98</t>
+  </si>
+  <si>
+    <t>看不懂 的 发 的 弹幕 让 我们 这些 真爱 粉情 何以堪.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_124</t>
+  </si>
+  <si>
+    <t>医生 也 挺 可怜 的 还有 帮 照顾 弟弟.</t>
+  </si>
+  <si>
+    <t>医生 人 很 好 的 ， 从来 没逼过 她 ， 向 她 求婚 人家 也 答应 了 啊.</t>
+  </si>
+  <si>
+    <t>心疼 医生.</t>
+  </si>
+  <si>
+    <t>医生 可怜 什么 ， 一个 十四 的 孩子 都 不放过.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_222</t>
+  </si>
+  <si>
+    <t>233333333333333333.</t>
+  </si>
+  <si>
+    <t>你 TM 在 逗我 ？.</t>
+  </si>
+  <si>
+    <t>这个 售货员 是 黄昏 之恋 里面 的 那个 戴绿帽 的 丈夫 哈哈哈 哈哈.</t>
+  </si>
+  <si>
+    <t>十块钱 你 买 个 铲 铲 ！.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_284</t>
+  </si>
+  <si>
+    <t>两个 神经病 哈哈哈哈.</t>
+  </si>
+  <si>
+    <t>正在 毁 三观.</t>
+  </si>
+  <si>
+    <t>以免 得手 生 23333.</t>
+  </si>
+  <si>
+    <t>脸好 脸 好 做 什么 都 可以 原谅 哈哈哈.</t>
+  </si>
+  <si>
+    <t>女神 你 这样 好 吗 ？.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_303</t>
+  </si>
+  <si>
+    <t>裤裆 藏 喇叭.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_306</t>
+  </si>
+  <si>
+    <t>太 明显 了 吧.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_310</t>
+  </si>
+  <si>
+    <t>尴尬 癌 又 犯 了.</t>
+  </si>
+  <si>
+    <t>笑 死 我 了.</t>
+  </si>
+  <si>
+    <t>偷 啥 不好 偷 面具.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 哈哈哈哈 哈哈哈.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_313</t>
+  </si>
+  <si>
+    <t>眼睛 好好看 啊.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_319</t>
+  </si>
+  <si>
+    <t>猫 跑 了 神作.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_323</t>
+  </si>
+  <si>
+    <t>233333333.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_410</t>
+  </si>
+  <si>
+    <t>猫猫 好 可怜.</t>
+  </si>
+  <si>
+    <t>心疼 大 喵.</t>
+  </si>
+  <si>
+    <t>猫咪 神 演技.</t>
+  </si>
+  <si>
+    <t>猫 给 我 我 要 把.</t>
+  </si>
+  <si>
+    <t>tifiny breakfast.csv_scene_439</t>
+  </si>
+  <si>
+    <t>哈哈哈哈.</t>
+  </si>
+  <si>
+    <t>丰胸 ？.</t>
+  </si>
+  <si>
+    <t>← ← ← 我天 ， 这 不 光头 强 吗 ？.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_6</t>
+  </si>
+  <si>
+    <t>gay 里 gay 气.</t>
+  </si>
+  <si>
+    <t>确定 不是 比利 王 ？.</t>
+  </si>
+  <si>
+    <t>蜜汁 突起 × 2.</t>
+  </si>
+  <si>
+    <t>好污.</t>
+  </si>
+  <si>
+    <t>哲学 ？.</t>
+  </si>
+  <si>
+    <t>以前 似乎 看过.</t>
+  </si>
+  <si>
+    <t>基佬 兄贵.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_10</t>
+  </si>
+  <si>
+    <t>胸口 碎 大石 ， 没 毛病.</t>
+  </si>
+  <si>
+    <t>胸器.</t>
+  </si>
+  <si>
+    <t>感觉 比 香肠 派对 污.</t>
+  </si>
+  <si>
+    <t>撕书 233.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_11</t>
+  </si>
+  <si>
+    <t>抖 m.</t>
+  </si>
+  <si>
+    <t>VAN ~ VAN ~ VAN ~ VAN ~ VAN ~ VAN ~.</t>
+  </si>
+  <si>
+    <t>求 药水 。 进女 澡堂 。 嘿嘿嘿 。 咳咳 咳 咳 咳.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_42</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_43</t>
+  </si>
+  <si>
+    <t>SM.</t>
+  </si>
+  <si>
+    <t>乳环 的 我服.</t>
+  </si>
+  <si>
+    <t>dark の 势力.</t>
+  </si>
+  <si>
+    <t>打 自己 干 啥.</t>
+  </si>
+  <si>
+    <t>直接 对 着 桶 喊 都 比 吹 声音 大 吧 ＝ ＝.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_53</t>
+  </si>
+  <si>
+    <t>哈哈哈 ， 挤奶 龙爪 手.</t>
+  </si>
+  <si>
+    <t>夺命 追魂 捏.</t>
+  </si>
+  <si>
+    <t>男主是 真 废 啊 … 好好 一个 部落 就 这么 团灭 了 ….</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_60</t>
+  </si>
+  <si>
+    <t>没 忍住 笑 了 hhhh.</t>
+  </si>
+  <si>
+    <t>一群 zz 都 放 了 快 四分之一 了 ， 还 在 讨论 什么 语言.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_69</t>
+  </si>
+  <si>
+    <t>ex 咖喱 棒.</t>
+  </si>
+  <si>
+    <t>白帝 圣剑 ， 华夏 第一 剑 ， 御剑 跟着 我.</t>
+  </si>
+  <si>
+    <t>火 之 高兴.</t>
+  </si>
+  <si>
+    <t>王者 之剑.</t>
+  </si>
+  <si>
+    <t>多兰 剑.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_93</t>
+  </si>
+  <si>
+    <t>卧槽 ， 爆灯 了.</t>
+  </si>
+  <si>
+    <t>对不起 我 笑 了 ⊙ ω ⊙ 哈哈.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_104</t>
+  </si>
+  <si>
+    <t>跟上 ， 快点 啦.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 哈哈哈 没 问题.</t>
+  </si>
+  <si>
+    <t>精灵 族 弓箭手.</t>
+  </si>
+  <si>
+    <t>主角 弱鸡 然后 历练 最后 神眷 都 是 一个 尿性.</t>
+  </si>
+  <si>
+    <t>女主 看起来 像 跟 野蛮 族 有 仇.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_126</t>
+  </si>
+  <si>
+    <t>菊花 一 紧.</t>
+  </si>
+  <si>
+    <t>我 觉得 欧洲 ， 尤其 是 北欧 ， 根本就是 各种 方言.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_132</t>
+  </si>
+  <si>
+    <t>于谦 的 笑 死 了.</t>
+  </si>
+  <si>
+    <t>抽烟 喝酒 烫头.</t>
+  </si>
+  <si>
+    <t>15 倍 笑 死 我 了.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_135</t>
+  </si>
+  <si>
+    <t>233333 我 觉得 精灵 男 在 撩 他 ， 脑补 一万 字 小 黄文.</t>
+  </si>
+  <si>
+    <t>一股 子 基佬 的 气息 = 皿 =.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_141</t>
+  </si>
+  <si>
+    <t>悟空.</t>
+  </si>
+  <si>
+    <t>西游记 ？.</t>
+  </si>
+  <si>
+    <t>这个 反派 的 头盔 很长 啊 ， 我 有点 跳戏 ， 感觉 里面 有 一只 皮皮虾.</t>
+  </si>
+  <si>
+    <t>元首 加 2.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_158</t>
+  </si>
+  <si>
+    <t>蜥蜴 ： MDZZ.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_162</t>
+  </si>
+  <si>
+    <t>2333333.</t>
+  </si>
+  <si>
+    <t>这是 MM 豆 被 黑 的 最惨 的 一次.</t>
+  </si>
+  <si>
+    <t>对 着 蛋蛋 ！ 开炮 ！.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_184</t>
+  </si>
+  <si>
+    <t>雕像 有 吊.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_186</t>
+  </si>
+  <si>
+    <t>蛋蛋 是 本体.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_193</t>
+  </si>
+  <si>
+    <t>我 去 好 疼 啊 看着.</t>
+  </si>
+  <si>
+    <t>前列腺 刹车.</t>
+  </si>
+  <si>
+    <t>tm 笑 死 我 了.</t>
+  </si>
+  <si>
+    <t>蛋蛋 的 忧桑.</t>
+  </si>
+  <si>
+    <t>他 那里 好像 强化 过 … ….</t>
+  </si>
+  <si>
+    <t>握草.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_198</t>
+  </si>
+  <si>
+    <t>我 一定 是 遇到 了 假 的 精灵.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_219</t>
+  </si>
+  <si>
+    <t>要 被 榨干 ？.</t>
+  </si>
+  <si>
+    <t>啪啪 啪.</t>
+  </si>
+  <si>
+    <t>才 注意 到 女王 的 手上 是 个 ♀.</t>
+  </si>
+  <si>
+    <t>然后 男主 开始 了 后宫 之 路.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_233</t>
+  </si>
+  <si>
+    <t>霸道 总裁 hhhh 原来 女主 不是 女主.</t>
+  </si>
+  <si>
+    <t>你 是 我 的 人 啦 ！ ！ ！ 大 魔王 也 有 七情六欲 啊 哈哈哈.</t>
+  </si>
+  <si>
+    <t>神 tm 反派.</t>
+  </si>
+  <si>
+    <t>卧槽 ， 突然 觉得 王子 挺 有趣 的 。 。 。.</t>
+  </si>
+  <si>
+    <t>心机 boy.</t>
+  </si>
+  <si>
+    <t>猝不及防 ， 一口 狗 粮.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_247</t>
+  </si>
+  <si>
+    <t>多米诺骨牌 ！ ！ ！.</t>
+  </si>
+  <si>
+    <t>2333.</t>
+  </si>
+  <si>
+    <t>男主 的 毁灭 天赋.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_297</t>
+  </si>
+  <si>
+    <t>双龙 出海 ！.</t>
+  </si>
+  <si>
+    <t>好 疼 啊 … ….</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_298</t>
+  </si>
+  <si>
+    <t>卧槽 还会 略略 略 23333 吊吊 吊.</t>
+  </si>
+  <si>
+    <t>这 不 就是 开头 被 勇士 打败 的 魔王 吗.</t>
+  </si>
+  <si>
+    <t>这 是 舔 币 的 手势.</t>
+  </si>
+  <si>
+    <t>卧槽 ， 还 卖萌 → _ →.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_311</t>
+  </si>
+  <si>
+    <t>德玛 西亚.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 ， 我 就 知道.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_320</t>
+  </si>
+  <si>
+    <t>弹幕 笑 死 了 ！ 我 是 怠惰 啊 哈哈哈.</t>
+  </si>
+  <si>
+    <t>最 怕 空气 突然 安静.</t>
+  </si>
+  <si>
+    <t>延迟 的 笑 死.</t>
+  </si>
+  <si>
+    <t>育碧 服务器 瞬间 出戏.</t>
+  </si>
+  <si>
+    <t>感谢 那些 提醒 亮度 的 高能 君.</t>
+  </si>
+  <si>
+    <t>我 的 眼睛 啊啊啊 啊 啊.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_328</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_329</t>
+  </si>
+  <si>
+    <t>这个 boss 是 为 主角 而生 的.</t>
+  </si>
+  <si>
+    <t>反射弧 有点 长.</t>
+  </si>
+  <si>
+    <t>哈哈哈哈 哈哈哈 育碧 服务器 高 ping 魔王 满分.</t>
+  </si>
+  <si>
+    <t>小伙伴 们 ， 没有 彩蛋 。 。 。.</t>
+  </si>
+  <si>
+    <t>哲学.</t>
+  </si>
+  <si>
+    <t>看过 了 香肠 派对.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_338</t>
+  </si>
+  <si>
+    <t>我 居然 看 完 了.</t>
+  </si>
+  <si>
+    <t>这个 和 香肠 那个 比 真的 不算 污 。 。 。.</t>
+  </si>
+  <si>
+    <t>确认 存活.</t>
+  </si>
+  <si>
+    <t>bgm 好熟 。 。 。.</t>
+  </si>
+  <si>
+    <t>最 好看 的 是 结尾曲 ( ￣ ε ( # ￣ ) ☆ ╰ ╮ o ( ￣ 皿 ￣ / / / ).</t>
+  </si>
+  <si>
+    <t>亚马逊 的 女 人们 还 在 等 着 你 呐 ， 诗人.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_339</t>
+  </si>
+  <si>
+    <t>存活 确认 ？.</t>
+  </si>
+  <si>
+    <t>… … 太魔性 了 … ….</t>
+  </si>
+  <si>
+    <t>想 知道 亚马逊 后来 怎么 了 + 1.</t>
+  </si>
+  <si>
+    <t>骷髅头 莫名 带感.</t>
+  </si>
+  <si>
+    <t>ye man ren luo na er.csv_scene_340</t>
+  </si>
+  <si>
+    <t>日语 看多 了 ， 已经 听不来 英文 了.</t>
+  </si>
+  <si>
+    <t>前面 的 说 bgm 像 末代皇帝 的 ， 原因 是 作曲家 都 是 同一个 人 — — 莫利 康内.</t>
+  </si>
+  <si>
+    <t>这 姑娘 怎么 可以 这么 好看 ！ ！ ！ ！.</t>
+  </si>
+  <si>
+    <t>这个 老太太 是 惊天 魔 盗团 的 天眼.</t>
+  </si>
+  <si>
+    <t>如果 口音 没 问题 的话 尴尬 感 不会 那么 重.</t>
+  </si>
+  <si>
+    <t>为了 突出 这是 日本 题材 ， 才 故意 让 老人 角色 操 日式 口音 。 前面 红字 笑 死 了.</t>
+  </si>
+  <si>
+    <t>千代 像 小 巩俐.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_58</t>
+  </si>
+  <si>
+    <t>哈哈哈 练习生 别 走 看 前辈 脸色 用 的 东西 都 是 前辈 赚 的 钱.</t>
+  </si>
+  <si>
+    <t>小 南瓜 有 特点 一点.</t>
+  </si>
+  <si>
+    <t>关闭 弹幕 食用 风味 更佳.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_60</t>
   </si>
 </sst>
 </file>
@@ -12091,7 +13662,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12100,7 +13671,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -12108,7 +13679,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -12130,7 +13701,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -12152,7 +13723,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="87">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -12240,8 +13811,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -12259,8 +13844,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="87">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -12304,6 +13890,13 @@
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -12347,6 +13940,13 @@
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12614,7 +14214,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12622,19 +14222,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B402"/>
+  <dimension ref="A1:B858"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A391" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A398" sqref="A398:A402"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A843" workbookViewId="0">
+      <selection activeCell="A856" sqref="A856:A858"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="1" max="1" width="38.1640625" customWidth="1"/>
     <col min="2" max="2" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -12642,7 +14242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12650,7 +14250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12658,7 +14258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -12666,7 +14266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -12674,7 +14274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -12682,7 +14282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12690,7 +14290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -12698,7 +14298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -12706,7 +14306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -12714,7 +14314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -12722,7 +14322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -12730,7 +14330,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -12738,7 +14338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -12746,7 +14346,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -12754,7 +14354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -12762,7 +14362,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -12770,7 +14370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -12778,7 +14378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -12786,7 +14386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -12794,7 +14394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -12802,7 +14402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -12810,7 +14410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -12818,7 +14418,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -12826,7 +14426,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -12834,7 +14434,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -12842,7 +14442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -12850,7 +14450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -12858,7 +14458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -12866,7 +14466,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -12874,7 +14474,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -12882,7 +14482,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -12890,7 +14490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -12898,7 +14498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -12906,7 +14506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -12914,7 +14514,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -12922,7 +14522,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -12930,7 +14530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -12938,7 +14538,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -12946,7 +14546,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -12954,7 +14554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -12962,7 +14562,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -12970,7 +14570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -12978,7 +14578,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -12986,7 +14586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -12994,7 +14594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -13002,7 +14602,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -13010,7 +14610,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -13018,7 +14618,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -13026,7 +14626,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -13034,7 +14634,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -13042,7 +14642,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>68</v>
       </c>
@@ -13050,7 +14650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -13058,7 +14658,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -13066,7 +14666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -13074,7 +14674,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -13082,7 +14682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -13090,7 +14690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -13098,7 +14698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -13106,7 +14706,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -13114,7 +14714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -13122,7 +14722,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -13130,7 +14730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>80</v>
       </c>
@@ -13138,7 +14738,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>80</v>
       </c>
@@ -13146,7 +14746,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>81</v>
       </c>
@@ -13154,7 +14754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -13162,7 +14762,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -13170,7 +14770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -13178,7 +14778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -13186,7 +14786,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -13194,7 +14794,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -13202,7 +14802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -13210,7 +14810,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -13218,7 +14818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -13226,7 +14826,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>97</v>
       </c>
@@ -13234,7 +14834,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>97</v>
       </c>
@@ -13242,7 +14842,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>97</v>
       </c>
@@ -13250,7 +14850,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -13258,7 +14858,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>102</v>
       </c>
@@ -13266,7 +14866,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>102</v>
       </c>
@@ -13274,7 +14874,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>102</v>
       </c>
@@ -13282,7 +14882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>102</v>
       </c>
@@ -13290,7 +14890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>105</v>
       </c>
@@ -13298,7 +14898,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>105</v>
       </c>
@@ -13306,7 +14906,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -13314,7 +14914,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -13322,7 +14922,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>110</v>
       </c>
@@ -13330,7 +14930,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -13338,7 +14938,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>117</v>
       </c>
@@ -13346,7 +14946,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -13354,7 +14954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>117</v>
       </c>
@@ -13362,7 +14962,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -13370,7 +14970,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -13378,7 +14978,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -13386,7 +14986,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>121</v>
       </c>
@@ -13394,7 +14994,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -13402,7 +15002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -13410,7 +15010,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -13418,7 +15018,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -13426,7 +15026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>127</v>
       </c>
@@ -13434,7 +15034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>127</v>
       </c>
@@ -13442,7 +15042,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -13450,7 +15050,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -13458,7 +15058,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -13466,7 +15066,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -13474,7 +15074,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -13482,7 +15082,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -13490,7 +15090,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>138</v>
       </c>
@@ -13498,7 +15098,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>138</v>
       </c>
@@ -13506,7 +15106,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>138</v>
       </c>
@@ -13514,7 +15114,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>138</v>
       </c>
@@ -13522,7 +15122,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>139</v>
       </c>
@@ -13530,7 +15130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>139</v>
       </c>
@@ -13538,7 +15138,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>146</v>
       </c>
@@ -13546,7 +15146,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>146</v>
       </c>
@@ -13554,7 +15154,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -13562,7 +15162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>146</v>
       </c>
@@ -13570,7 +15170,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>147</v>
       </c>
@@ -13578,7 +15178,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -13586,7 +15186,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>147</v>
       </c>
@@ -13594,7 +15194,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>148</v>
       </c>
@@ -13602,7 +15202,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>148</v>
       </c>
@@ -13610,7 +15210,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>148</v>
       </c>
@@ -13618,7 +15218,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -13626,7 +15226,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>156</v>
       </c>
@@ -13634,7 +15234,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>156</v>
       </c>
@@ -13642,7 +15242,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>156</v>
       </c>
@@ -13650,7 +15250,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>156</v>
       </c>
@@ -13658,7 +15258,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>157</v>
       </c>
@@ -13666,7 +15266,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>157</v>
       </c>
@@ -13674,7 +15274,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>162</v>
       </c>
@@ -13682,7 +15282,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>162</v>
       </c>
@@ -13690,7 +15290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -13698,7 +15298,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -13706,7 +15306,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>167</v>
       </c>
@@ -13714,7 +15314,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>172</v>
       </c>
@@ -13722,7 +15322,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>172</v>
       </c>
@@ -13730,7 +15330,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>172</v>
       </c>
@@ -13738,7 +15338,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -13746,7 +15346,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -13754,7 +15354,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>173</v>
       </c>
@@ -13762,7 +15362,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>173</v>
       </c>
@@ -13770,7 +15370,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>173</v>
       </c>
@@ -13778,7 +15378,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>173</v>
       </c>
@@ -13786,7 +15386,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>174</v>
       </c>
@@ -13794,7 +15394,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>174</v>
       </c>
@@ -13802,7 +15402,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>174</v>
       </c>
@@ -13810,7 +15410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>174</v>
       </c>
@@ -13818,7 +15418,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>174</v>
       </c>
@@ -13826,7 +15426,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>180</v>
       </c>
@@ -13834,7 +15434,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>180</v>
       </c>
@@ -13842,7 +15442,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>180</v>
       </c>
@@ -13850,7 +15450,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>190</v>
       </c>
@@ -13858,7 +15458,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>190</v>
       </c>
@@ -13866,7 +15466,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>197</v>
       </c>
@@ -13874,7 +15474,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>197</v>
       </c>
@@ -13882,7 +15482,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>197</v>
       </c>
@@ -13890,7 +15490,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>197</v>
       </c>
@@ -13898,7 +15498,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>197</v>
       </c>
@@ -13906,7 +15506,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>197</v>
       </c>
@@ -13914,7 +15514,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>198</v>
       </c>
@@ -13922,7 +15522,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>198</v>
       </c>
@@ -13930,7 +15530,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>198</v>
       </c>
@@ -13938,7 +15538,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>198</v>
       </c>
@@ -13946,7 +15546,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>199</v>
       </c>
@@ -13954,7 +15554,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>199</v>
       </c>
@@ -13962,7 +15562,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>199</v>
       </c>
@@ -13970,7 +15570,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>199</v>
       </c>
@@ -13978,7 +15578,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -13986,7 +15586,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>199</v>
       </c>
@@ -13994,7 +15594,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>210</v>
       </c>
@@ -14002,7 +15602,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>210</v>
       </c>
@@ -14010,7 +15610,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>210</v>
       </c>
@@ -14018,7 +15618,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>218</v>
       </c>
@@ -14026,7 +15626,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>218</v>
       </c>
@@ -14034,7 +15634,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>218</v>
       </c>
@@ -14042,7 +15642,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>218</v>
       </c>
@@ -14050,7 +15650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>219</v>
       </c>
@@ -14058,7 +15658,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>219</v>
       </c>
@@ -14066,7 +15666,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -14074,7 +15674,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>219</v>
       </c>
@@ -14082,7 +15682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>219</v>
       </c>
@@ -14090,7 +15690,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>226</v>
       </c>
@@ -14098,7 +15698,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>226</v>
       </c>
@@ -14106,7 +15706,7 @@
         <v>23333333</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>231</v>
       </c>
@@ -14114,7 +15714,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>231</v>
       </c>
@@ -14122,7 +15722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>231</v>
       </c>
@@ -14130,7 +15730,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>231</v>
       </c>
@@ -14138,7 +15738,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>236</v>
       </c>
@@ -14146,7 +15746,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>236</v>
       </c>
@@ -14154,7 +15754,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>236</v>
       </c>
@@ -14162,7 +15762,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>236</v>
       </c>
@@ -14170,7 +15770,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>241</v>
       </c>
@@ -14178,7 +15778,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>241</v>
       </c>
@@ -14186,7 +15786,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>241</v>
       </c>
@@ -14194,7 +15794,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>241</v>
       </c>
@@ -14202,7 +15802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>242</v>
       </c>
@@ -14210,7 +15810,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>242</v>
       </c>
@@ -14218,7 +15818,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>242</v>
       </c>
@@ -14226,7 +15826,7 @@
         <v>2333333</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>242</v>
       </c>
@@ -14234,7 +15834,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>242</v>
       </c>
@@ -14242,7 +15842,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>250</v>
       </c>
@@ -14250,7 +15850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>250</v>
       </c>
@@ -14258,7 +15858,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>250</v>
       </c>
@@ -14266,7 +15866,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>255</v>
       </c>
@@ -14274,7 +15874,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>255</v>
       </c>
@@ -14282,7 +15882,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>255</v>
       </c>
@@ -14290,7 +15890,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>255</v>
       </c>
@@ -14298,7 +15898,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>258</v>
       </c>
@@ -14306,7 +15906,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>258</v>
       </c>
@@ -14314,7 +15914,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>258</v>
       </c>
@@ -14322,7 +15922,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>263</v>
       </c>
@@ -14330,7 +15930,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>263</v>
       </c>
@@ -14338,7 +15938,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>263</v>
       </c>
@@ -14346,7 +15946,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>263</v>
       </c>
@@ -14354,7 +15954,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>267</v>
       </c>
@@ -14362,7 +15962,7 @@
         <v>23333333</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>267</v>
       </c>
@@ -14370,7 +15970,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>267</v>
       </c>
@@ -14378,7 +15978,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>267</v>
       </c>
@@ -14386,7 +15986,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>271</v>
       </c>
@@ -14394,7 +15994,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>271</v>
       </c>
@@ -14402,7 +16002,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>271</v>
       </c>
@@ -14410,7 +16010,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>276</v>
       </c>
@@ -14418,7 +16018,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>276</v>
       </c>
@@ -14426,7 +16026,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>276</v>
       </c>
@@ -14434,7 +16034,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>276</v>
       </c>
@@ -14442,7 +16042,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>281</v>
       </c>
@@ -14450,7 +16050,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>281</v>
       </c>
@@ -14458,7 +16058,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>281</v>
       </c>
@@ -14466,7 +16066,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>281</v>
       </c>
@@ -14474,7 +16074,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>284</v>
       </c>
@@ -14482,7 +16082,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>284</v>
       </c>
@@ -14490,7 +16090,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>288</v>
       </c>
@@ -14498,7 +16098,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>288</v>
       </c>
@@ -14506,7 +16106,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>288</v>
       </c>
@@ -14514,7 +16114,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>288</v>
       </c>
@@ -14522,7 +16122,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>292</v>
       </c>
@@ -14530,7 +16130,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>292</v>
       </c>
@@ -14538,7 +16138,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>292</v>
       </c>
@@ -14546,7 +16146,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>297</v>
       </c>
@@ -14554,7 +16154,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>297</v>
       </c>
@@ -14562,7 +16162,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>297</v>
       </c>
@@ -14570,7 +16170,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>297</v>
       </c>
@@ -14578,7 +16178,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>301</v>
       </c>
@@ -14586,7 +16186,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>301</v>
       </c>
@@ -14594,7 +16194,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>301</v>
       </c>
@@ -14602,7 +16202,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="18">
+    <row r="247" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>307</v>
       </c>
@@ -14610,7 +16210,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="18">
+    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>307</v>
       </c>
@@ -14618,7 +16218,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="18">
+    <row r="249" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>307</v>
       </c>
@@ -14626,7 +16226,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="18">
+    <row r="250" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>307</v>
       </c>
@@ -14634,7 +16234,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="18">
+    <row r="251" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>307</v>
       </c>
@@ -14642,7 +16242,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="18">
+    <row r="252" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>311</v>
       </c>
@@ -14650,7 +16250,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="18">
+    <row r="253" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>311</v>
       </c>
@@ -14658,7 +16258,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="18">
+    <row r="254" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>311</v>
       </c>
@@ -14666,7 +16266,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="18">
+    <row r="255" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>312</v>
       </c>
@@ -14674,7 +16274,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="18">
+    <row r="256" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>312</v>
       </c>
@@ -14682,7 +16282,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="18">
+    <row r="257" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>312</v>
       </c>
@@ -14690,7 +16290,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="18">
+    <row r="258" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>320</v>
       </c>
@@ -14698,7 +16298,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>320</v>
       </c>
@@ -14706,7 +16306,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>320</v>
       </c>
@@ -14714,7 +16314,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="18">
+    <row r="261" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>320</v>
       </c>
@@ -14722,7 +16322,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="18">
+    <row r="262" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>325</v>
       </c>
@@ -14730,7 +16330,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="18">
+    <row r="263" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>325</v>
       </c>
@@ -14738,7 +16338,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>325</v>
       </c>
@@ -14746,7 +16346,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="18">
+    <row r="265" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>325</v>
       </c>
@@ -14754,7 +16354,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="18">
+    <row r="266" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>329</v>
       </c>
@@ -14762,7 +16362,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>329</v>
       </c>
@@ -14770,7 +16370,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="18">
+    <row r="268" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>329</v>
       </c>
@@ -14778,7 +16378,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>334</v>
       </c>
@@ -14786,7 +16386,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="18">
+    <row r="270" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>334</v>
       </c>
@@ -14794,7 +16394,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="18">
+    <row r="271" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>334</v>
       </c>
@@ -14802,7 +16402,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="18">
+    <row r="272" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>334</v>
       </c>
@@ -14810,7 +16410,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>336</v>
       </c>
@@ -14818,7 +16418,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="18">
+    <row r="274" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>336</v>
       </c>
@@ -14826,7 +16426,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>341</v>
       </c>
@@ -14834,7 +16434,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="18">
+    <row r="276" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>341</v>
       </c>
@@ -14842,7 +16442,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="18">
+    <row r="277" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>341</v>
       </c>
@@ -14850,7 +16450,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="18">
+    <row r="278" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>341</v>
       </c>
@@ -14858,7 +16458,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="18">
+    <row r="279" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>341</v>
       </c>
@@ -14866,7 +16466,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>345</v>
       </c>
@@ -14874,7 +16474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="18">
+    <row r="281" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>345</v>
       </c>
@@ -14882,7 +16482,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="18">
+    <row r="282" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>345</v>
       </c>
@@ -14890,7 +16490,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="18">
+    <row r="283" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>345</v>
       </c>
@@ -14898,7 +16498,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="18">
+    <row r="284" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>350</v>
       </c>
@@ -14906,7 +16506,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="18">
+    <row r="285" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>350</v>
       </c>
@@ -14914,7 +16514,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="18">
+    <row r="286" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>350</v>
       </c>
@@ -14922,7 +16522,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="18">
+    <row r="287" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>350</v>
       </c>
@@ -14930,7 +16530,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="18">
+    <row r="288" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>354</v>
       </c>
@@ -14938,7 +16538,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>354</v>
       </c>
@@ -14946,7 +16546,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="18">
+    <row r="290" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>354</v>
       </c>
@@ -14954,7 +16554,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="18">
+    <row r="291" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>357</v>
       </c>
@@ -14962,7 +16562,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="18">
+    <row r="292" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>357</v>
       </c>
@@ -14970,7 +16570,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="18">
+    <row r="293" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>362</v>
       </c>
@@ -14978,7 +16578,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="18">
+    <row r="294" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>362</v>
       </c>
@@ -14986,7 +16586,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="18">
+    <row r="295" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>362</v>
       </c>
@@ -14994,7 +16594,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="18">
+    <row r="296" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>362</v>
       </c>
@@ -15002,7 +16602,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="18">
+    <row r="297" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>368</v>
       </c>
@@ -15010,7 +16610,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>368</v>
       </c>
@@ -15018,7 +16618,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="18">
+    <row r="299" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>368</v>
       </c>
@@ -15026,7 +16626,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="18">
+    <row r="300" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>368</v>
       </c>
@@ -15034,7 +16634,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="18">
+    <row r="301" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>368</v>
       </c>
@@ -15042,7 +16642,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="18">
+    <row r="302" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>372</v>
       </c>
@@ -15050,7 +16650,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="18">
+    <row r="303" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>372</v>
       </c>
@@ -15058,7 +16658,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="18">
+    <row r="304" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>372</v>
       </c>
@@ -15066,7 +16666,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="18">
+    <row r="305" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>372</v>
       </c>
@@ -15074,7 +16674,7 @@
         <v>233333333</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="18">
+    <row r="306" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>378</v>
       </c>
@@ -15082,7 +16682,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="18">
+    <row r="307" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>377</v>
       </c>
@@ -15090,7 +16690,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="18">
+    <row r="308" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>377</v>
       </c>
@@ -15098,7 +16698,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="18">
+    <row r="309" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>377</v>
       </c>
@@ -15106,7 +16706,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>377</v>
       </c>
@@ -15114,7 +16714,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="18">
+    <row r="311" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>386</v>
       </c>
@@ -15122,7 +16722,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="18">
+    <row r="312" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>386</v>
       </c>
@@ -15130,7 +16730,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="18">
+    <row r="313" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>386</v>
       </c>
@@ -15138,7 +16738,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="18">
+    <row r="314" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>386</v>
       </c>
@@ -15146,7 +16746,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>386</v>
       </c>
@@ -15154,7 +16754,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="18">
+    <row r="316" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>390</v>
       </c>
@@ -15162,7 +16762,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="18">
+    <row r="317" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>390</v>
       </c>
@@ -15170,7 +16770,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="18">
+    <row r="318" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>390</v>
       </c>
@@ -15178,7 +16778,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>396</v>
       </c>
@@ -15186,7 +16786,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>396</v>
       </c>
@@ -15194,7 +16794,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="18">
+    <row r="321" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>396</v>
       </c>
@@ -15202,7 +16802,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="18">
+    <row r="322" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>396</v>
       </c>
@@ -15210,7 +16810,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="18">
+    <row r="323" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>396</v>
       </c>
@@ -15218,7 +16818,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>396</v>
       </c>
@@ -15226,7 +16826,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="18">
+    <row r="325" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>401</v>
       </c>
@@ -15234,7 +16834,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="18">
+    <row r="326" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>401</v>
       </c>
@@ -15242,7 +16842,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>401</v>
       </c>
@@ -15250,7 +16850,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>401</v>
       </c>
@@ -15258,7 +16858,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="18">
+    <row r="329" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>408</v>
       </c>
@@ -15266,7 +16866,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="18">
+    <row r="330" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>408</v>
       </c>
@@ -15274,7 +16874,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="18">
+    <row r="331" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>408</v>
       </c>
@@ -15282,7 +16882,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="18">
+    <row r="332" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>408</v>
       </c>
@@ -15290,7 +16890,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="18">
+    <row r="333" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>408</v>
       </c>
@@ -15298,7 +16898,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="18">
+    <row r="334" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>408</v>
       </c>
@@ -15306,7 +16906,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="18">
+    <row r="335" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>413</v>
       </c>
@@ -15314,7 +16914,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="18">
+    <row r="336" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>413</v>
       </c>
@@ -15322,7 +16922,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="18">
+    <row r="337" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>413</v>
       </c>
@@ -15330,7 +16930,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="18">
+    <row r="338" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>413</v>
       </c>
@@ -15338,7 +16938,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="18">
+    <row r="339" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>417</v>
       </c>
@@ -15346,7 +16946,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="18">
+    <row r="340" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>417</v>
       </c>
@@ -15354,7 +16954,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="18">
+    <row r="341" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>417</v>
       </c>
@@ -15362,7 +16962,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="18">
+    <row r="342" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>423</v>
       </c>
@@ -15370,7 +16970,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="18">
+    <row r="343" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>423</v>
       </c>
@@ -15378,7 +16978,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="18">
+    <row r="344" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>423</v>
       </c>
@@ -15386,7 +16986,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="18">
+    <row r="345" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>423</v>
       </c>
@@ -15394,7 +16994,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="18">
+    <row r="346" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>423</v>
       </c>
@@ -15402,7 +17002,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="18">
+    <row r="347" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>427</v>
       </c>
@@ -15410,7 +17010,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="18">
+    <row r="348" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>427</v>
       </c>
@@ -15418,7 +17018,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="18">
+    <row r="349" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>427</v>
       </c>
@@ -15426,7 +17026,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="18">
+    <row r="350" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>427</v>
       </c>
@@ -15434,7 +17034,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="18">
+    <row r="351" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>432</v>
       </c>
@@ -15442,7 +17042,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>432</v>
       </c>
@@ -15450,7 +17050,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="18">
+    <row r="353" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>432</v>
       </c>
@@ -15458,7 +17058,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="18">
+    <row r="354" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>432</v>
       </c>
@@ -15466,7 +17066,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="18">
+    <row r="355" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>436</v>
       </c>
@@ -15474,7 +17074,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="18">
+    <row r="356" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>436</v>
       </c>
@@ -15482,7 +17082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="18">
+    <row r="357" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>436</v>
       </c>
@@ -15490,7 +17090,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="18">
+    <row r="358" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>442</v>
       </c>
@@ -15498,7 +17098,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="18">
+    <row r="359" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>442</v>
       </c>
@@ -15506,7 +17106,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="18">
+    <row r="360" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>442</v>
       </c>
@@ -15514,7 +17114,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="18">
+    <row r="361" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>442</v>
       </c>
@@ -15522,7 +17122,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="18">
+    <row r="362" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>442</v>
       </c>
@@ -15530,7 +17130,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="18">
+    <row r="363" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>447</v>
       </c>
@@ -15538,7 +17138,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="18">
+    <row r="364" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>447</v>
       </c>
@@ -15546,7 +17146,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="18">
+    <row r="365" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>447</v>
       </c>
@@ -15554,7 +17154,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>447</v>
       </c>
@@ -15562,7 +17162,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="18">
+    <row r="367" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>450</v>
       </c>
@@ -15570,7 +17170,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="18">
+    <row r="368" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>450</v>
       </c>
@@ -15578,7 +17178,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="18">
+    <row r="369" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>454</v>
       </c>
@@ -15586,7 +17186,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="18">
+    <row r="370" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>454</v>
       </c>
@@ -15594,7 +17194,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="18">
+    <row r="371" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>454</v>
       </c>
@@ -15602,7 +17202,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="18">
+    <row r="372" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>458</v>
       </c>
@@ -15610,7 +17210,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="18">
+    <row r="373" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>458</v>
       </c>
@@ -15618,7 +17218,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="18">
+    <row r="374" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>458</v>
       </c>
@@ -15626,7 +17226,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="18">
+    <row r="375" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>458</v>
       </c>
@@ -15634,7 +17234,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="18">
+    <row r="376" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>460</v>
       </c>
@@ -15642,7 +17242,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="18">
+    <row r="377" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>460</v>
       </c>
@@ -15650,7 +17250,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="18">
+    <row r="378" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>463</v>
       </c>
@@ -15658,7 +17258,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="18">
+    <row r="379" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>463</v>
       </c>
@@ -15666,7 +17266,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="18">
+    <row r="380" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>466</v>
       </c>
@@ -15674,7 +17274,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="18">
+    <row r="381" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>466</v>
       </c>
@@ -15682,7 +17282,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="18">
+    <row r="382" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>466</v>
       </c>
@@ -15690,7 +17290,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="18">
+    <row r="383" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>469</v>
       </c>
@@ -15698,7 +17298,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="18">
+    <row r="384" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>469</v>
       </c>
@@ -15706,7 +17306,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="18">
+    <row r="385" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>469</v>
       </c>
@@ -15714,7 +17314,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="18">
+    <row r="386" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>473</v>
       </c>
@@ -15722,7 +17322,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="18">
+    <row r="387" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>473</v>
       </c>
@@ -15730,7 +17330,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="18">
+    <row r="388" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>473</v>
       </c>
@@ -15738,7 +17338,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="18">
+    <row r="389" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>473</v>
       </c>
@@ -15746,7 +17346,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="18">
+    <row r="390" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>474</v>
       </c>
@@ -15754,7 +17354,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="391" spans="1:2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>474</v>
       </c>
@@ -15762,7 +17362,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="18">
+    <row r="392" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>478</v>
       </c>
@@ -15770,7 +17370,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="18">
+    <row r="393" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>478</v>
       </c>
@@ -15778,7 +17378,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="18">
+    <row r="394" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>478</v>
       </c>
@@ -15786,7 +17386,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="18">
+    <row r="395" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>481</v>
       </c>
@@ -15794,7 +17394,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="396" spans="1:2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>481</v>
       </c>
@@ -15802,7 +17402,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="18">
+    <row r="397" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>481</v>
       </c>
@@ -15810,7 +17410,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="18">
+    <row r="398" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>487</v>
       </c>
@@ -15818,7 +17418,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="18">
+    <row r="399" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>487</v>
       </c>
@@ -15826,7 +17426,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="18">
+    <row r="400" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>487</v>
       </c>
@@ -15834,7 +17434,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="18">
+    <row r="401" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>487</v>
       </c>
@@ -15842,22 +17442,3665 @@
         <v>485</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="18">
+    <row r="402" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>487</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>486</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>493</v>
+      </c>
+      <c r="B403" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>493</v>
+      </c>
+      <c r="B404" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>493</v>
+      </c>
+      <c r="B405" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>493</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>493</v>
+      </c>
+      <c r="B407" s="7" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>498</v>
+      </c>
+      <c r="B408" s="7" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>498</v>
+      </c>
+      <c r="B409" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>498</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>498</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>498</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>503</v>
+      </c>
+      <c r="B413" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>503</v>
+      </c>
+      <c r="B414" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>503</v>
+      </c>
+      <c r="B415" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>503</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>506</v>
+      </c>
+      <c r="B417" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>506</v>
+      </c>
+      <c r="B418" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>506</v>
+      </c>
+      <c r="B419" s="7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>510</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>510</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>510</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>514</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>514</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>514</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>515</v>
+      </c>
+      <c r="B426" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>515</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>515</v>
+      </c>
+      <c r="B428" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>522</v>
+      </c>
+      <c r="B429" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>522</v>
+      </c>
+      <c r="B430" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>522</v>
+      </c>
+      <c r="B431" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>522</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>522</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>528</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>528</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>528</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>528</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>528</v>
+      </c>
+      <c r="B438" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>531</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>531</v>
+      </c>
+      <c r="B440" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>531</v>
+      </c>
+      <c r="B441" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>536</v>
+      </c>
+      <c r="B442" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>536</v>
+      </c>
+      <c r="B443" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>536</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>536</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>543</v>
+      </c>
+      <c r="B446" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>543</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>543</v>
+      </c>
+      <c r="B448" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>543</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>543</v>
+      </c>
+      <c r="B450" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>543</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>544</v>
+      </c>
+      <c r="B452" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>544</v>
+      </c>
+      <c r="B453" s="7" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>550</v>
+      </c>
+      <c r="B454" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>550</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>550</v>
+      </c>
+      <c r="B456" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>551</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>551</v>
+      </c>
+      <c r="B458" s="7" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>551</v>
+      </c>
+      <c r="B459" s="7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>551</v>
+      </c>
+      <c r="B460" s="7" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>558</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>558</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>565</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>565</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>565</v>
+      </c>
+      <c r="B465" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>565</v>
+      </c>
+      <c r="B466" s="7" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>565</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>565</v>
+      </c>
+      <c r="B468" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>570</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>570</v>
+      </c>
+      <c r="B470" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>570</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>570</v>
+      </c>
+      <c r="B472" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>572</v>
+      </c>
+      <c r="B473" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>572</v>
+      </c>
+      <c r="B474" s="7" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>578</v>
+      </c>
+      <c r="B475" s="7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>578</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>578</v>
+      </c>
+      <c r="B477" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>578</v>
+      </c>
+      <c r="B478" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>578</v>
+      </c>
+      <c r="B479" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>578</v>
+      </c>
+      <c r="B480" s="7" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>585</v>
+      </c>
+      <c r="B481" s="7" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>585</v>
+      </c>
+      <c r="B482" s="7" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>585</v>
+      </c>
+      <c r="B483" s="7" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>585</v>
+      </c>
+      <c r="B484" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>586</v>
+      </c>
+      <c r="B485" s="7" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>586</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>592</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>592</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>592</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>592</v>
+      </c>
+      <c r="B490" s="7" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>592</v>
+      </c>
+      <c r="B491" s="7" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>598</v>
+      </c>
+      <c r="B492" s="7" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>598</v>
+      </c>
+      <c r="B493" s="7" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>598</v>
+      </c>
+      <c r="B494" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>598</v>
+      </c>
+      <c r="B495" s="7" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>598</v>
+      </c>
+      <c r="B496" s="7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>603</v>
+      </c>
+      <c r="B497" s="7" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>603</v>
+      </c>
+      <c r="B498" s="7" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>603</v>
+      </c>
+      <c r="B499" s="7" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>603</v>
+      </c>
+      <c r="B500" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>608</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>608</v>
+      </c>
+      <c r="B502" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>608</v>
+      </c>
+      <c r="B503" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>608</v>
+      </c>
+      <c r="B504" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>608</v>
+      </c>
+      <c r="B505" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>615</v>
+      </c>
+      <c r="B506" s="7" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>615</v>
+      </c>
+      <c r="B507" s="7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>615</v>
+      </c>
+      <c r="B508" s="7" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>615</v>
+      </c>
+      <c r="B509" s="7" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>615</v>
+      </c>
+      <c r="B510" s="7" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>615</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>619</v>
+      </c>
+      <c r="B512" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>619</v>
+      </c>
+      <c r="B513" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>619</v>
+      </c>
+      <c r="B514" s="7" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>619</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>623</v>
+      </c>
+      <c r="B516" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>623</v>
+      </c>
+      <c r="B517" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>623</v>
+      </c>
+      <c r="B518" s="7" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>628</v>
+      </c>
+      <c r="B519" s="7" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>628</v>
+      </c>
+      <c r="B520" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>628</v>
+      </c>
+      <c r="B521" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>628</v>
+      </c>
+      <c r="B522" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>632</v>
+      </c>
+      <c r="B523" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>632</v>
+      </c>
+      <c r="B524" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>632</v>
+      </c>
+      <c r="B525" s="7" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>633</v>
+      </c>
+      <c r="B526" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>633</v>
+      </c>
+      <c r="B527" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>633</v>
+      </c>
+      <c r="B528" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>633</v>
+      </c>
+      <c r="B529" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>640</v>
+      </c>
+      <c r="B530" s="7" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>640</v>
+      </c>
+      <c r="B531" s="7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>640</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>643</v>
+      </c>
+      <c r="B533" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>643</v>
+      </c>
+      <c r="B534" s="7" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>643</v>
+      </c>
+      <c r="B535" s="7" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>647</v>
+      </c>
+      <c r="B536" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>647</v>
+      </c>
+      <c r="B537" s="7" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>647</v>
+      </c>
+      <c r="B538" s="7" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>650</v>
+      </c>
+      <c r="B539" s="7" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>650</v>
+      </c>
+      <c r="B540" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>650</v>
+      </c>
+      <c r="B541" s="7" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>654</v>
+      </c>
+      <c r="B542" s="7" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>654</v>
+      </c>
+      <c r="B543" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>654</v>
+      </c>
+      <c r="B544" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>654</v>
+      </c>
+      <c r="B545" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>658</v>
+      </c>
+      <c r="B546" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>658</v>
+      </c>
+      <c r="B547" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>658</v>
+      </c>
+      <c r="B548" s="7" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>658</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>663</v>
+      </c>
+      <c r="B550" s="7" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>663</v>
+      </c>
+      <c r="B551" s="7" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>663</v>
+      </c>
+      <c r="B552" s="7" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>663</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>669</v>
+      </c>
+      <c r="B554" s="7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>669</v>
+      </c>
+      <c r="B555" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>669</v>
+      </c>
+      <c r="B556" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>669</v>
+      </c>
+      <c r="B557" s="7" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>669</v>
+      </c>
+      <c r="B558" s="7" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>673</v>
+      </c>
+      <c r="B559" s="7" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>673</v>
+      </c>
+      <c r="B560" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>673</v>
+      </c>
+      <c r="B561" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>673</v>
+      </c>
+      <c r="B562" s="7" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>676</v>
+      </c>
+      <c r="B563" s="7" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>676</v>
+      </c>
+      <c r="B564" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>681</v>
+      </c>
+      <c r="B565" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>681</v>
+      </c>
+      <c r="B566" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>681</v>
+      </c>
+      <c r="B567" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>681</v>
+      </c>
+      <c r="B568" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>684</v>
+      </c>
+      <c r="B569" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>684</v>
+      </c>
+      <c r="B570" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>684</v>
+      </c>
+      <c r="B571" s="7" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>684</v>
+      </c>
+      <c r="B572" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>687</v>
+      </c>
+      <c r="B573" s="7" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>687</v>
+      </c>
+      <c r="B574" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>688</v>
+      </c>
+      <c r="B575" s="7" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>688</v>
+      </c>
+      <c r="B576" s="7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>694</v>
+      </c>
+      <c r="B577" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>694</v>
+      </c>
+      <c r="B578" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>694</v>
+      </c>
+      <c r="B579" s="7" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>696</v>
+      </c>
+      <c r="B580" s="7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>696</v>
+      </c>
+      <c r="B581" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>697</v>
+      </c>
+      <c r="B582" s="7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>697</v>
+      </c>
+      <c r="B583" s="7" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>697</v>
+      </c>
+      <c r="B584" s="7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>703</v>
+      </c>
+      <c r="B585" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>703</v>
+      </c>
+      <c r="B586" s="7" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>707</v>
+      </c>
+      <c r="B587" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>707</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>707</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>708</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>708</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>708</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>708</v>
+      </c>
+      <c r="B593" s="7" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>708</v>
+      </c>
+      <c r="B594" s="7" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>708</v>
+      </c>
+      <c r="B595" s="7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>719</v>
+      </c>
+      <c r="B596" s="7" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>719</v>
+      </c>
+      <c r="B597" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>719</v>
+      </c>
+      <c r="B598" s="7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>719</v>
+      </c>
+      <c r="B599" s="7" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>723</v>
+      </c>
+      <c r="B600" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>723</v>
+      </c>
+      <c r="B601" s="7" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>723</v>
+      </c>
+      <c r="B602" s="7" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>727</v>
+      </c>
+      <c r="B603" s="7" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>727</v>
+      </c>
+      <c r="B604" s="7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>727</v>
+      </c>
+      <c r="B605" s="7" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>731</v>
+      </c>
+      <c r="B606" s="7" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>731</v>
+      </c>
+      <c r="B607" s="7" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>731</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>735</v>
+      </c>
+      <c r="B609" s="7" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>735</v>
+      </c>
+      <c r="B610" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>735</v>
+      </c>
+      <c r="B611" s="7" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>735</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>738</v>
+      </c>
+      <c r="B613" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>738</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>745</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>745</v>
+      </c>
+      <c r="B616" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>745</v>
+      </c>
+      <c r="B617" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>745</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>745</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>745</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>748</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>748</v>
+      </c>
+      <c r="B622" s="7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>748</v>
+      </c>
+      <c r="B623" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>754</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>754</v>
+      </c>
+      <c r="B625" s="7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>754</v>
+      </c>
+      <c r="B626" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>754</v>
+      </c>
+      <c r="B627" s="7" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>754</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>757</v>
+      </c>
+      <c r="B629" s="7" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>757</v>
+      </c>
+      <c r="B630" s="7" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>757</v>
+      </c>
+      <c r="B631" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>762</v>
+      </c>
+      <c r="B632" s="7" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>762</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>762</v>
+      </c>
+      <c r="B634" s="7" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>767</v>
+      </c>
+      <c r="B635" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>767</v>
+      </c>
+      <c r="B636" s="7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>767</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>767</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>773</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>773</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>773</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>773</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>773</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>780</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>780</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>780</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>780</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>780</v>
+      </c>
+      <c r="B648" s="7" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>780</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>780</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>785</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>785</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>785</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>785</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>789</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>789</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>789</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>790</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>790</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>790</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>797</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>797</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>797</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>797</v>
+      </c>
+      <c r="B664" s="7" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>801</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>802</v>
+      </c>
+      <c r="B666" s="7" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>803</v>
+      </c>
+      <c r="B667" s="7" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>804</v>
+      </c>
+      <c r="B668" s="7" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>809</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>809</v>
+      </c>
+      <c r="B670" s="7" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>809</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>809</v>
+      </c>
+      <c r="B672" s="7" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>815</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>815</v>
+      </c>
+      <c r="B674" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>815</v>
+      </c>
+      <c r="B675" s="7" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>815</v>
+      </c>
+      <c r="B676" s="7" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>815</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>815</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>821</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>821</v>
+      </c>
+      <c r="B680" s="7" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>821</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>821</v>
+      </c>
+      <c r="B682" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>821</v>
+      </c>
+      <c r="B683" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>821</v>
+      </c>
+      <c r="B684" s="7" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>823</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>823</v>
+      </c>
+      <c r="B686" s="7" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>828</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>828</v>
+      </c>
+      <c r="B688" s="7" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>828</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>828</v>
+      </c>
+      <c r="B690" s="7" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>833</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>833</v>
+      </c>
+      <c r="B692" s="7" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>833</v>
+      </c>
+      <c r="B693" s="7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>833</v>
+      </c>
+      <c r="B694" s="7" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>833</v>
+      </c>
+      <c r="B695" s="7" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>839</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>839</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>839</v>
+      </c>
+      <c r="B698" s="7" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>839</v>
+      </c>
+      <c r="B699" s="7" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>841</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>841</v>
+      </c>
+      <c r="B701" s="7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>843</v>
+      </c>
+      <c r="B702" s="7" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>843</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>848</v>
+      </c>
+      <c r="B704" s="7" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>848</v>
+      </c>
+      <c r="B705" s="7" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>848</v>
+      </c>
+      <c r="B706" s="7" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>848</v>
+      </c>
+      <c r="B707" s="7" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>850</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>850</v>
+      </c>
+      <c r="B709" s="7" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>852</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>852</v>
+      </c>
+      <c r="B711" s="7" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>854</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>859</v>
+      </c>
+      <c r="B713" s="7" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>859</v>
+      </c>
+      <c r="B714" s="7" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>859</v>
+      </c>
+      <c r="B715" s="7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>859</v>
+      </c>
+      <c r="B716" s="7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>859</v>
+      </c>
+      <c r="B717" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>863</v>
+      </c>
+      <c r="B718" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>863</v>
+      </c>
+      <c r="B719" s="7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>863</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>871</v>
+      </c>
+      <c r="B721" s="7" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>871</v>
+      </c>
+      <c r="B722" s="7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>871</v>
+      </c>
+      <c r="B723" s="7" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>871</v>
+      </c>
+      <c r="B724" s="7" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>871</v>
+      </c>
+      <c r="B725" s="7" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>871</v>
+      </c>
+      <c r="B726" s="7" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>871</v>
+      </c>
+      <c r="B727" s="7" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>871</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>876</v>
+      </c>
+      <c r="B729" s="7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>876</v>
+      </c>
+      <c r="B730" s="7" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>876</v>
+      </c>
+      <c r="B731" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>876</v>
+      </c>
+      <c r="B732" s="7" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>876</v>
+      </c>
+      <c r="B733" s="7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>880</v>
+      </c>
+      <c r="B734" s="7" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>880</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>880</v>
+      </c>
+      <c r="B736" s="7" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>880</v>
+      </c>
+      <c r="B737" s="7" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>881</v>
+      </c>
+      <c r="B738" s="7" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>881</v>
+      </c>
+      <c r="B739" s="7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>881</v>
+      </c>
+      <c r="B740" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>881</v>
+      </c>
+      <c r="B741" s="7" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>881</v>
+      </c>
+      <c r="B742" s="7" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>887</v>
+      </c>
+      <c r="B743" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>887</v>
+      </c>
+      <c r="B744" s="7" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>891</v>
+      </c>
+      <c r="B745" s="7" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>891</v>
+      </c>
+      <c r="B746" s="7" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>891</v>
+      </c>
+      <c r="B747" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>891</v>
+      </c>
+      <c r="B748" s="7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>894</v>
+      </c>
+      <c r="B749" s="7" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>894</v>
+      </c>
+      <c r="B750" s="7" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>900</v>
+      </c>
+      <c r="B751" s="7" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>900</v>
+      </c>
+      <c r="B752" s="7" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>900</v>
+      </c>
+      <c r="B753" s="7" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>900</v>
+      </c>
+      <c r="B754" s="7" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>900</v>
+      </c>
+      <c r="B755" s="7" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>903</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>903</v>
+      </c>
+      <c r="B757" s="7" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" t="s">
+        <v>903</v>
+      </c>
+      <c r="B758" s="7" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" t="s">
+        <v>909</v>
+      </c>
+      <c r="B759" s="7" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" t="s">
+        <v>909</v>
+      </c>
+      <c r="B760" s="7" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" t="s">
+        <v>909</v>
+      </c>
+      <c r="B761" s="7" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" t="s">
+        <v>909</v>
+      </c>
+      <c r="B762" s="7" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>909</v>
+      </c>
+      <c r="B763" s="7" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" t="s">
+        <v>912</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" t="s">
+        <v>912</v>
+      </c>
+      <c r="B765" s="7" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" t="s">
+        <v>912</v>
+      </c>
+      <c r="B766" s="7" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" t="s">
+        <v>916</v>
+      </c>
+      <c r="B767" s="7" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" t="s">
+        <v>916</v>
+      </c>
+      <c r="B768" s="7" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" t="s">
+        <v>916</v>
+      </c>
+      <c r="B769" s="7" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" t="s">
+        <v>919</v>
+      </c>
+      <c r="B770" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" t="s">
+        <v>919</v>
+      </c>
+      <c r="B771" s="7" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" t="s">
+        <v>919</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" t="s">
+        <v>919</v>
+      </c>
+      <c r="B773" s="7" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" t="s">
+        <v>924</v>
+      </c>
+      <c r="B774" s="7" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" t="s">
+        <v>924</v>
+      </c>
+      <c r="B775" s="7" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" t="s">
+        <v>924</v>
+      </c>
+      <c r="B776" s="7" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" t="s">
+        <v>924</v>
+      </c>
+      <c r="B777" s="7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" t="s">
+        <v>926</v>
+      </c>
+      <c r="B778" s="7" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>926</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>930</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>930</v>
+      </c>
+      <c r="B781" s="7" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>930</v>
+      </c>
+      <c r="B782" s="7" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>932</v>
+      </c>
+      <c r="B783" s="7" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>932</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>934</v>
+      </c>
+      <c r="B785" s="7" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>934</v>
+      </c>
+      <c r="B786" s="7" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>934</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>941</v>
+      </c>
+      <c r="B788" s="7" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>941</v>
+      </c>
+      <c r="B789" s="7" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>941</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>941</v>
+      </c>
+      <c r="B791" s="7" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>941</v>
+      </c>
+      <c r="B792" s="7" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>941</v>
+      </c>
+      <c r="B793" s="7" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>941</v>
+      </c>
+      <c r="B794" s="7" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>943</v>
+      </c>
+      <c r="B795" s="7" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>943</v>
+      </c>
+      <c r="B796" s="7" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>948</v>
+      </c>
+      <c r="B797" s="7" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>948</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>948</v>
+      </c>
+      <c r="B799" s="7" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>948</v>
+      </c>
+      <c r="B800" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>948</v>
+      </c>
+      <c r="B801" s="7" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>948</v>
+      </c>
+      <c r="B802" s="7" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>955</v>
+      </c>
+      <c r="B803" s="7" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>955</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>955</v>
+      </c>
+      <c r="B805" s="7" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>955</v>
+      </c>
+      <c r="B806" s="7" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>955</v>
+      </c>
+      <c r="B807" s="7" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>955</v>
+      </c>
+      <c r="B808" s="7" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>955</v>
+      </c>
+      <c r="B809" s="7" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>959</v>
+      </c>
+      <c r="B810" s="7" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>959</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>959</v>
+      </c>
+      <c r="B812" s="7" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>962</v>
+      </c>
+      <c r="B813" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>962</v>
+      </c>
+      <c r="B814" s="7" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>962</v>
+      </c>
+      <c r="B815" s="7" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>962</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>967</v>
+      </c>
+      <c r="B817" s="7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>967</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>967</v>
+      </c>
+      <c r="B819" s="7" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>967</v>
+      </c>
+      <c r="B820" s="7" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>967</v>
+      </c>
+      <c r="B821" s="7" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>970</v>
+      </c>
+      <c r="B822" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>970</v>
+      </c>
+      <c r="B823" s="7" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>970</v>
+      </c>
+      <c r="B824" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>977</v>
+      </c>
+      <c r="B825" s="7" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>977</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>977</v>
+      </c>
+      <c r="B827" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>977</v>
+      </c>
+      <c r="B828" s="7" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>977</v>
+      </c>
+      <c r="B829" s="7" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>977</v>
+      </c>
+      <c r="B830" s="7" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>977</v>
+      </c>
+      <c r="B831" s="7" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>978</v>
+      </c>
+      <c r="B832" s="7" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>978</v>
+      </c>
+      <c r="B833" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>978</v>
+      </c>
+      <c r="B834" s="7" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>985</v>
+      </c>
+      <c r="B835" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" t="s">
+        <v>985</v>
+      </c>
+      <c r="B836" s="7" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" t="s">
+        <v>985</v>
+      </c>
+      <c r="B837" s="7" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" t="s">
+        <v>985</v>
+      </c>
+      <c r="B838" s="7" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" t="s">
+        <v>992</v>
+      </c>
+      <c r="B839" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" t="s">
+        <v>992</v>
+      </c>
+      <c r="B840" s="7" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" t="s">
+        <v>992</v>
+      </c>
+      <c r="B841" s="7" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" t="s">
+        <v>992</v>
+      </c>
+      <c r="B842" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" t="s">
+        <v>992</v>
+      </c>
+      <c r="B843" s="7" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" t="s">
+        <v>992</v>
+      </c>
+      <c r="B844" s="7" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" t="s">
+        <v>997</v>
+      </c>
+      <c r="B845" s="7" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" t="s">
+        <v>997</v>
+      </c>
+      <c r="B846" s="7" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" t="s">
+        <v>997</v>
+      </c>
+      <c r="B847" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" t="s">
+        <v>997</v>
+      </c>
+      <c r="B848" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B849" s="7" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B850" s="7" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B851" s="7" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B852" s="7" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B853" s="7" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B854" s="7" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B855" s="7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B856" s="7" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B857" s="7" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B858" s="7" t="s">
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/summary_golden_standard/summary_golden_standard.xlsx
+++ b/data/summary_golden_standard/summary_golden_standard.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="1049">
   <si>
     <t>ba wang bie ji.csv_scene_66</t>
   </si>
@@ -13652,6 +13652,123 @@
   </si>
   <si>
     <t>yi ji hui yi lu.csv_scene_60</t>
+  </si>
+  <si>
+    <t>萝莉 好 美 啊啊啊.</t>
+  </si>
+  <si>
+    <t>看 哭.</t>
+  </si>
+  <si>
+    <t>画面 构图 ， 旖旎 的 音乐 ， 天 啊 太美 了.</t>
+  </si>
+  <si>
+    <t>明明 像 巩俐 啊.</t>
+  </si>
+  <si>
+    <t>前面 说 像 深田恭子 和 韩孝珠 的 我 同意.</t>
+  </si>
+  <si>
+    <t>渡 远方.</t>
+  </si>
+  <si>
+    <t>好 漂亮 ， 有点像 章子怡.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_158</t>
+  </si>
+  <si>
+    <t>这个 可爱 的.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_215</t>
+  </si>
+  <si>
+    <t>哈哈哈 哈哈笑 出 声.</t>
+  </si>
+  <si>
+    <t>怎么 又 叫 呐桑 了 ， 艺妓 不是 身份 越高越 朴素 吗.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_227</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_228</t>
+  </si>
+  <si>
+    <t>这个 眼神 ， 服不服 子怡 演技 ， 服不服.</t>
+  </si>
+  <si>
+    <t>这部 电影 里 的 都 是 真美人 啊 ， 现在 的 那些 明星 若有 她们 半分 神韵 足矣 ！.</t>
+  </si>
+  <si>
+    <t>尬 茶.</t>
+  </si>
+  <si>
+    <t>这 他 妈 就 很 尴尬 了.</t>
+  </si>
+  <si>
+    <t>哪位 大叔 变 老头 了 么.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_241</t>
+  </si>
+  <si>
+    <t>真的 觉得 恐怖 的 根本 没有 带 着 欣赏 艺术 的 眼光 来看 这部 电影.</t>
+  </si>
+  <si>
+    <t>花魁 都 是 要 搭 在 仆人 的 肩膀 上 走 这个 花魁 步 ， 章子怡 不用 扶 已经 很 厉害 了.</t>
+  </si>
+  <si>
+    <t>卧槽 美炸 了.</t>
+  </si>
+  <si>
+    <t>这段 是 “ 鹭娘 ” ， 表现 垂死 的 样子 … 日本 传统 的 鹭娘 更 … 静 一点 ….</t>
+  </si>
+  <si>
+    <t>我天 被 吓 到 了.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_325</t>
+  </si>
+  <si>
+    <t>卡到 哭 。 。 。 。.</t>
+  </si>
+  <si>
+    <t>原来 大家 都 卡 啊.</t>
+  </si>
+  <si>
+    <t>为什么 这么 卡 ！ ！.</t>
+  </si>
+  <si>
+    <t>解.</t>
+  </si>
+  <si>
+    <t>美的 打 寒战 啊啊啊 啊 ！ ！ ！ 真的 是 打 寒战 ！ ！ ！.</t>
+  </si>
+  <si>
+    <t>这 明明 就 很 像 鬼 好 吗.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_327</t>
+  </si>
+  <si>
+    <t>原来 不是 我 一个 人卡.</t>
+  </si>
+  <si>
+    <t>其实 。 。 。 。 我 真 感受 不到 美在 哪 ， 怪 我 不 懂 欣赏.</t>
+  </si>
+  <si>
+    <t>但是 这段 黑 章子怡 的 真的 要 闭嘴 了 人家 是 艺术家 够 你们 这样 评头论足 的 ？.</t>
+  </si>
+  <si>
+    <t>吹 呀 吹 呀 ， 我 的 骄傲 放纵.</t>
+  </si>
+  <si>
+    <t>日本 人 好像 挺 喜欢 凄凉 之 美的.</t>
+  </si>
+  <si>
+    <t>yi ji hui yi lu.csv_scene_328</t>
   </si>
 </sst>
 </file>
@@ -13664,7 +13781,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -13723,8 +13839,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13846,7 +13964,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="103">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -13897,6 +14015,7 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -13947,6 +14066,7 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14222,10 +14342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B858"/>
+  <dimension ref="A1:B892"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A843" workbookViewId="0">
-      <selection activeCell="A856" sqref="A856:A858"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A870" workbookViewId="0">
+      <selection activeCell="A888" sqref="A888:A892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21098,6 +21218,278 @@
         <v>1008</v>
       </c>
     </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B859" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B860" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B861" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B862" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B863" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B864" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B865" s="7" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B868" s="7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B869" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B871" s="7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B872" s="7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B873" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B874" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B875" s="7" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B876" s="7" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B877" s="7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B878" s="7" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B879" s="7" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B880" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B881" s="7" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B882" s="7" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B883" s="7" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B884" s="7" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B885" s="7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B886" s="7" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B887" s="7" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B888" s="7" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B889" s="7" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B890" s="7" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B891" s="7" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B892" s="7" t="s">
+        <v>1047</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
